--- a/results_5MHZ_LTE.xlsx
+++ b/results_5MHZ_LTE.xlsx
@@ -575,6 +575,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -856,6 +858,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1137,6 +1141,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -1418,6 +1424,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -3907,6 +3915,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -4188,6 +4198,8 @@
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="-20"/>
+          <min val="-60"/>
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
@@ -5057,13 +5069,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.77</v>
+        <v>24.41</v>
       </c>
       <c r="C2" t="n">
-        <v>24.69</v>
+        <v>24.38</v>
       </c>
       <c r="D2" t="n">
-        <v>24.78</v>
+        <v>24.37</v>
       </c>
     </row>
     <row r="3">
@@ -5071,13 +5083,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.81</v>
+        <v>24.47</v>
       </c>
       <c r="C3" t="n">
-        <v>24.83</v>
+        <v>24.47</v>
       </c>
       <c r="D3" t="n">
-        <v>24.78</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="4">
@@ -5085,13 +5097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.92</v>
+        <v>24.52</v>
       </c>
       <c r="C4" t="n">
-        <v>24.84</v>
+        <v>24.5</v>
       </c>
       <c r="D4" t="n">
-        <v>24.9</v>
+        <v>24.63</v>
       </c>
     </row>
     <row r="5">
@@ -5099,13 +5111,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.54</v>
+        <v>24.06</v>
       </c>
       <c r="C5" t="n">
-        <v>24.55</v>
+        <v>23.99</v>
       </c>
       <c r="D5" t="n">
-        <v>24.56</v>
+        <v>24.11</v>
       </c>
     </row>
     <row r="6">
@@ -5113,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.91</v>
+        <v>24.5</v>
       </c>
       <c r="C6" t="n">
-        <v>25.01</v>
+        <v>24.48</v>
       </c>
       <c r="D6" t="n">
-        <v>24.97</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="7">
@@ -5127,13 +5139,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.84</v>
+        <v>24.37</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8</v>
+        <v>24.54</v>
       </c>
       <c r="D7" t="n">
-        <v>24.78</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="8">
@@ -5141,13 +5153,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.96</v>
+        <v>24.22</v>
       </c>
       <c r="C8" t="n">
-        <v>24.85</v>
+        <v>24.34</v>
       </c>
       <c r="D8" t="n">
-        <v>24.91</v>
+        <v>24.23</v>
       </c>
     </row>
   </sheetData>
@@ -5222,22 +5234,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-44.47</v>
+        <v>-43.35</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.22</v>
+        <v>-54.64</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.23</v>
+        <v>-45.37</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.06</v>
+        <v>-55.54</v>
       </c>
       <c r="G2" t="n">
         <v>-57.87</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.4</v>
+        <v>-55.87</v>
       </c>
     </row>
     <row r="3">
@@ -5250,22 +5262,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-47.88</v>
+        <v>-47.51</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.43</v>
+        <v>-54.34</v>
       </c>
       <c r="E3" t="n">
-        <v>-49.47</v>
+        <v>-49.51</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.15</v>
+        <v>-55.1</v>
       </c>
       <c r="G3" t="n">
-        <v>-57.66</v>
+        <v>-57.83</v>
       </c>
       <c r="H3" t="n">
-        <v>-55.5</v>
+        <v>-55.72</v>
       </c>
     </row>
     <row r="4">
@@ -5278,22 +5290,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.59</v>
+        <v>-45.96</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.73</v>
+        <v>-54.56</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.41</v>
+        <v>-47.47</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.44</v>
+        <v>-55.34</v>
       </c>
       <c r="G4" t="n">
-        <v>-57.9</v>
+        <v>-57.83</v>
       </c>
       <c r="H4" t="n">
-        <v>-55.94</v>
+        <v>-56.31</v>
       </c>
     </row>
     <row r="5">
@@ -5306,22 +5318,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.12</v>
+        <v>-46.32</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.46</v>
+        <v>-53.83</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.73</v>
+        <v>-47.95</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.21</v>
+        <v>-54.6</v>
       </c>
       <c r="G5" t="n">
-        <v>-57.84</v>
+        <v>-58.39</v>
       </c>
       <c r="H5" t="n">
-        <v>-55.56</v>
+        <v>-55.7</v>
       </c>
     </row>
     <row r="6">
@@ -5334,22 +5346,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-45.68</v>
+        <v>-46.77</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.09</v>
+        <v>-54.01</v>
       </c>
       <c r="E6" t="n">
-        <v>-47.08</v>
+        <v>-48.43</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.88</v>
+        <v>-54.83</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.66</v>
+        <v>-56.76</v>
       </c>
       <c r="H6" t="n">
-        <v>-55.88</v>
+        <v>-56.59</v>
       </c>
     </row>
     <row r="7">
@@ -5362,22 +5374,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-44.36</v>
+        <v>-46.69</v>
       </c>
       <c r="D7" t="n">
-        <v>-54.14</v>
+        <v>-54.04</v>
       </c>
       <c r="E7" t="n">
-        <v>-46.31</v>
+        <v>-48.62</v>
       </c>
       <c r="F7" t="n">
-        <v>-54.94</v>
+        <v>-54.91</v>
       </c>
       <c r="G7" t="n">
-        <v>-56.46</v>
+        <v>-56.62</v>
       </c>
       <c r="H7" t="n">
-        <v>-56.83</v>
+        <v>-56.65</v>
       </c>
     </row>
     <row r="8">
@@ -5390,22 +5402,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.62</v>
+        <v>-43.03</v>
       </c>
       <c r="D8" t="n">
-        <v>-54.69</v>
+        <v>-54.09</v>
       </c>
       <c r="E8" t="n">
-        <v>-46.51</v>
+        <v>-44.74</v>
       </c>
       <c r="F8" t="n">
-        <v>-55.4</v>
+        <v>-54.99</v>
       </c>
       <c r="G8" t="n">
-        <v>-60.53</v>
+        <v>-60.61</v>
       </c>
       <c r="H8" t="n">
-        <v>-56.81</v>
+        <v>-56.66</v>
       </c>
     </row>
     <row r="9">
@@ -5418,22 +5430,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-46.05</v>
+        <v>-46.63</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.24</v>
+        <v>-54.4</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.9</v>
+        <v>-48.34</v>
       </c>
       <c r="F9" t="n">
-        <v>-54.97</v>
+        <v>-55.22</v>
       </c>
       <c r="G9" t="n">
-        <v>-57.61</v>
+        <v>-57.6</v>
       </c>
       <c r="H9" t="n">
-        <v>-56.34</v>
+        <v>-56.43</v>
       </c>
     </row>
     <row r="10">
@@ -5446,22 +5458,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-45.64</v>
+        <v>-49.23</v>
       </c>
       <c r="D10" t="n">
-        <v>-55.3</v>
+        <v>-55.41</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.59</v>
+        <v>-50.93</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.01</v>
+        <v>-56.18</v>
       </c>
       <c r="G10" t="n">
-        <v>-57.81</v>
+        <v>-57.61</v>
       </c>
       <c r="H10" t="n">
-        <v>-58.93</v>
+        <v>-59.12</v>
       </c>
     </row>
     <row r="11">
@@ -5474,22 +5486,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.19</v>
+        <v>-43.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.94</v>
+        <v>-54.02</v>
       </c>
       <c r="E11" t="n">
-        <v>-45.96</v>
+        <v>-45.68</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.68</v>
+        <v>-54.82</v>
       </c>
       <c r="G11" t="n">
-        <v>-58.81</v>
+        <v>-58.76</v>
       </c>
       <c r="H11" t="n">
-        <v>-56.06</v>
+        <v>-56.04</v>
       </c>
     </row>
     <row r="12">
@@ -5502,22 +5514,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.25</v>
+        <v>-45.21</v>
       </c>
       <c r="D12" t="n">
-        <v>-53.77</v>
+        <v>-53.71</v>
       </c>
       <c r="E12" t="n">
-        <v>-47.87</v>
+        <v>-47.02</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.61</v>
+        <v>-54.54</v>
       </c>
       <c r="G12" t="n">
-        <v>-57.21</v>
+        <v>-56.75</v>
       </c>
       <c r="H12" t="n">
-        <v>-55.8</v>
+        <v>-55.97</v>
       </c>
     </row>
     <row r="13">
@@ -5530,22 +5542,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-44.2</v>
+        <v>-43.26</v>
       </c>
       <c r="D13" t="n">
-        <v>-53.59</v>
+        <v>-53.6</v>
       </c>
       <c r="E13" t="n">
-        <v>-46.68</v>
+        <v>-45.63</v>
       </c>
       <c r="F13" t="n">
-        <v>-54.28</v>
+        <v>-54.4</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.6</v>
+        <v>-57.66</v>
       </c>
       <c r="H13" t="n">
-        <v>-55.8</v>
+        <v>-56.25</v>
       </c>
     </row>
     <row r="14">
@@ -5558,22 +5570,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-40.57</v>
+        <v>-40.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.71</v>
+        <v>-54.81</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.77</v>
+        <v>-42.84</v>
       </c>
       <c r="F14" t="n">
-        <v>-55.7</v>
+        <v>-55.78</v>
       </c>
       <c r="G14" t="n">
-        <v>-61.61</v>
+        <v>-62.13</v>
       </c>
       <c r="H14" t="n">
-        <v>-58.43</v>
+        <v>-58.35</v>
       </c>
     </row>
     <row r="15">
@@ -5586,22 +5598,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.17</v>
+        <v>-40.5</v>
       </c>
       <c r="D15" t="n">
-        <v>-55.16</v>
+        <v>-54.47</v>
       </c>
       <c r="E15" t="n">
-        <v>-44.04</v>
+        <v>-42.56</v>
       </c>
       <c r="F15" t="n">
-        <v>-56.08</v>
+        <v>-55.42</v>
       </c>
       <c r="G15" t="n">
-        <v>-60.16</v>
+        <v>-60.23</v>
       </c>
       <c r="H15" t="n">
-        <v>-58.4</v>
+        <v>-58.21</v>
       </c>
     </row>
     <row r="16">
@@ -5614,22 +5626,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.68</v>
+        <v>-40.98</v>
       </c>
       <c r="D16" t="n">
-        <v>-55.23</v>
+        <v>-55.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-43.94</v>
+        <v>-43.42</v>
       </c>
       <c r="F16" t="n">
-        <v>-56.05</v>
+        <v>-56.32</v>
       </c>
       <c r="G16" t="n">
-        <v>-60.47</v>
+        <v>-60.12</v>
       </c>
       <c r="H16" t="n">
-        <v>-59.69</v>
+        <v>-59.17</v>
       </c>
     </row>
     <row r="17">
@@ -5642,22 +5654,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-44.39</v>
+        <v>-46.65</v>
       </c>
       <c r="D17" t="n">
-        <v>-53.65</v>
+        <v>-53.78</v>
       </c>
       <c r="E17" t="n">
-        <v>-46.03</v>
+        <v>-47.94</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.38</v>
+        <v>-54.59</v>
       </c>
       <c r="G17" t="n">
-        <v>-58.01</v>
+        <v>-58.39</v>
       </c>
       <c r="H17" t="n">
-        <v>-55.5</v>
+        <v>-55.74</v>
       </c>
     </row>
     <row r="18">
@@ -5670,22 +5682,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-44.99</v>
+        <v>-47.37</v>
       </c>
       <c r="D18" t="n">
-        <v>-53.85</v>
+        <v>-54.22</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.53</v>
+        <v>-49.02</v>
       </c>
       <c r="F18" t="n">
-        <v>-54.63</v>
+        <v>-55.04</v>
       </c>
       <c r="G18" t="n">
-        <v>-56.15</v>
+        <v>-56.64</v>
       </c>
       <c r="H18" t="n">
-        <v>-56.09</v>
+        <v>-56.5</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5710,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-43.2</v>
+        <v>-44.63</v>
       </c>
       <c r="D19" t="n">
-        <v>-54.87</v>
+        <v>-54.73</v>
       </c>
       <c r="E19" t="n">
-        <v>-44.78</v>
+        <v>-46.27</v>
       </c>
       <c r="F19" t="n">
-        <v>-55.75</v>
+        <v>-55.78</v>
       </c>
       <c r="G19" t="n">
-        <v>-56.96</v>
+        <v>-57.24</v>
       </c>
       <c r="H19" t="n">
-        <v>-58.36</v>
+        <v>-58.83</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5738,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-44.56</v>
+        <v>-46.35</v>
       </c>
       <c r="D20" t="n">
-        <v>-54.52</v>
+        <v>-54.05</v>
       </c>
       <c r="E20" t="n">
-        <v>-46.59</v>
+        <v>-48.54</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.21</v>
+        <v>-54.83</v>
       </c>
       <c r="G20" t="n">
-        <v>-58.77</v>
+        <v>-58.69</v>
       </c>
       <c r="H20" t="n">
-        <v>-56.09</v>
+        <v>-56.27</v>
       </c>
     </row>
     <row r="21">
@@ -5754,22 +5766,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-46.05</v>
+        <v>-45.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-53.61</v>
+        <v>-53.93</v>
       </c>
       <c r="E21" t="n">
-        <v>-47.69</v>
+        <v>-47.34</v>
       </c>
       <c r="F21" t="n">
-        <v>-54.32</v>
+        <v>-54.86</v>
       </c>
       <c r="G21" t="n">
-        <v>-57.73</v>
+        <v>-57.93</v>
       </c>
       <c r="H21" t="n">
-        <v>-55.96</v>
+        <v>-56.55</v>
       </c>
     </row>
     <row r="22">
@@ -5782,22 +5794,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-45.13</v>
+        <v>-47.29</v>
       </c>
       <c r="D22" t="n">
-        <v>-54.36</v>
+        <v>-54.47</v>
       </c>
       <c r="E22" t="n">
-        <v>-46.47</v>
+        <v>-49.33</v>
       </c>
       <c r="F22" t="n">
-        <v>-55.03</v>
+        <v>-55.18</v>
       </c>
       <c r="G22" t="n">
-        <v>-56.97</v>
+        <v>-56.92</v>
       </c>
       <c r="H22" t="n">
-        <v>-56.81</v>
+        <v>-56.65</v>
       </c>
     </row>
   </sheetData>
@@ -5872,22 +5884,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.98</v>
+        <v>-43.12</v>
       </c>
       <c r="D2" t="n">
-        <v>-42.98</v>
+        <v>-42.46</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.27</v>
+        <v>-44.45</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.44</v>
+        <v>-43.92</v>
       </c>
       <c r="G2" t="n">
-        <v>-54.14</v>
+        <v>-53.73</v>
       </c>
       <c r="H2" t="n">
-        <v>-52.11</v>
+        <v>-52.42</v>
       </c>
     </row>
     <row r="3">
@@ -5900,22 +5912,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-44.35</v>
+        <v>-45.33</v>
       </c>
       <c r="D3" t="n">
-        <v>-44.27</v>
+        <v>-45.01</v>
       </c>
       <c r="E3" t="n">
-        <v>-46.18</v>
+        <v>-46.73</v>
       </c>
       <c r="F3" t="n">
-        <v>-46.16</v>
+        <v>-47</v>
       </c>
       <c r="G3" t="n">
-        <v>-54.31</v>
+        <v>-54.35</v>
       </c>
       <c r="H3" t="n">
-        <v>-51.84</v>
+        <v>-52.65</v>
       </c>
     </row>
     <row r="4">
@@ -5928,22 +5940,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.7</v>
+        <v>-43.76</v>
       </c>
       <c r="D4" t="n">
-        <v>-44.31</v>
+        <v>-43.56</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.33</v>
+        <v>-45.56</v>
       </c>
       <c r="F4" t="n">
-        <v>-45.92</v>
+        <v>-45.29</v>
       </c>
       <c r="G4" t="n">
-        <v>-54.38</v>
+        <v>-53.47</v>
       </c>
       <c r="H4" t="n">
-        <v>-51.76</v>
+        <v>-51.45</v>
       </c>
     </row>
     <row r="5">
@@ -5956,22 +5968,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-44.55</v>
+        <v>-45.26</v>
       </c>
       <c r="D5" t="n">
-        <v>-44.06</v>
+        <v>-45.48</v>
       </c>
       <c r="E5" t="n">
-        <v>-46.19</v>
+        <v>-46.98</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.99</v>
+        <v>-47.04</v>
       </c>
       <c r="G5" t="n">
-        <v>-54.73</v>
+        <v>-55.01</v>
       </c>
       <c r="H5" t="n">
-        <v>-52.14</v>
+        <v>-52.56</v>
       </c>
     </row>
     <row r="6">
@@ -5984,22 +5996,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-43.15</v>
+        <v>-42.84</v>
       </c>
       <c r="D6" t="n">
-        <v>-44.3</v>
+        <v>-44.29</v>
       </c>
       <c r="E6" t="n">
-        <v>-44.41</v>
+        <v>-44.36</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.83</v>
+        <v>-46.17</v>
       </c>
       <c r="G6" t="n">
-        <v>-53.89</v>
+        <v>-53.13</v>
       </c>
       <c r="H6" t="n">
-        <v>-53.1</v>
+        <v>-53.07</v>
       </c>
     </row>
     <row r="7">
@@ -6012,22 +6024,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-40.82</v>
+        <v>-40.83</v>
       </c>
       <c r="D7" t="n">
-        <v>-41.55</v>
+        <v>-42.16</v>
       </c>
       <c r="E7" t="n">
-        <v>-41.92</v>
+        <v>-42.02</v>
       </c>
       <c r="F7" t="n">
-        <v>-42.84</v>
+        <v>-43.41</v>
       </c>
       <c r="G7" t="n">
-        <v>-53.39</v>
+        <v>-53.19</v>
       </c>
       <c r="H7" t="n">
-        <v>-53.2</v>
+        <v>-53.21</v>
       </c>
     </row>
     <row r="8">
@@ -6040,22 +6052,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.68</v>
+        <v>-42.72</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.06</v>
+        <v>-42.8</v>
       </c>
       <c r="E8" t="n">
-        <v>-44</v>
+        <v>-44.32</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.34</v>
+        <v>-44.43</v>
       </c>
       <c r="G8" t="n">
-        <v>-55.38</v>
+        <v>-54.48</v>
       </c>
       <c r="H8" t="n">
-        <v>-51.71</v>
+        <v>-51.19</v>
       </c>
     </row>
     <row r="9">
@@ -6068,22 +6080,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.29</v>
+        <v>-45.3</v>
       </c>
       <c r="D9" t="n">
-        <v>-43.22</v>
+        <v>-44.51</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.71</v>
+        <v>-46.86</v>
       </c>
       <c r="F9" t="n">
-        <v>-45.07</v>
+        <v>-46.54</v>
       </c>
       <c r="G9" t="n">
-        <v>-53.96</v>
+        <v>-54.82</v>
       </c>
       <c r="H9" t="n">
-        <v>-52.34</v>
+        <v>-53.01</v>
       </c>
     </row>
     <row r="10">
@@ -6096,22 +6108,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.55</v>
+        <v>-43.28</v>
       </c>
       <c r="D10" t="n">
-        <v>-43.61</v>
+        <v>-44.73</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.71</v>
+        <v>-44.55</v>
       </c>
       <c r="F10" t="n">
-        <v>-44.78</v>
+        <v>-46.69</v>
       </c>
       <c r="G10" t="n">
-        <v>-52.08</v>
+        <v>-52.61</v>
       </c>
       <c r="H10" t="n">
-        <v>-54.12</v>
+        <v>-54.91</v>
       </c>
     </row>
     <row r="11">
@@ -6124,22 +6136,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41.89</v>
+        <v>-42.71</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.29</v>
+        <v>-41.32</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.02</v>
+        <v>-43.74</v>
       </c>
       <c r="F11" t="n">
-        <v>-42.57</v>
+        <v>-42.63</v>
       </c>
       <c r="G11" t="n">
-        <v>-53.47</v>
+        <v>-53.4</v>
       </c>
       <c r="H11" t="n">
-        <v>-51.24</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="12">
@@ -6152,22 +6164,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.97</v>
+        <v>-44.29</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.2</v>
+        <v>-43.47</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.57</v>
+        <v>-45.77</v>
       </c>
       <c r="F12" t="n">
-        <v>-45.33</v>
+        <v>-45.15</v>
       </c>
       <c r="G12" t="n">
-        <v>-55.52</v>
+        <v>-54.32</v>
       </c>
       <c r="H12" t="n">
-        <v>-54.74</v>
+        <v>-53.84</v>
       </c>
     </row>
     <row r="13">
@@ -6180,22 +6192,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.76</v>
+        <v>-41.13</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.45</v>
+        <v>-39.87</v>
       </c>
       <c r="E13" t="n">
-        <v>-42.88</v>
+        <v>-42.24</v>
       </c>
       <c r="F13" t="n">
-        <v>-41.61</v>
+        <v>-41.03</v>
       </c>
       <c r="G13" t="n">
-        <v>-54.28</v>
+        <v>-53.94</v>
       </c>
       <c r="H13" t="n">
-        <v>-51.8</v>
+        <v>-51.51</v>
       </c>
     </row>
     <row r="14">
@@ -6208,22 +6220,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-39.89</v>
+        <v>-40.64</v>
       </c>
       <c r="D14" t="n">
-        <v>-37.28</v>
+        <v>-37.62</v>
       </c>
       <c r="E14" t="n">
-        <v>-41.08</v>
+        <v>-41.9</v>
       </c>
       <c r="F14" t="n">
-        <v>-38.14</v>
+        <v>-38.62</v>
       </c>
       <c r="G14" t="n">
-        <v>-52.77</v>
+        <v>-52.72</v>
       </c>
       <c r="H14" t="n">
-        <v>-49.92</v>
+        <v>-50.3</v>
       </c>
     </row>
     <row r="15">
@@ -6236,22 +6248,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-40.69</v>
+        <v>-39.33</v>
       </c>
       <c r="D15" t="n">
-        <v>-38.59</v>
+        <v>-37.75</v>
       </c>
       <c r="E15" t="n">
-        <v>-41.8</v>
+        <v>-40.52</v>
       </c>
       <c r="F15" t="n">
-        <v>-39.68</v>
+        <v>-38.79</v>
       </c>
       <c r="G15" t="n">
-        <v>-53.98</v>
+        <v>-53.48</v>
       </c>
       <c r="H15" t="n">
-        <v>-51.27</v>
+        <v>-51.62</v>
       </c>
     </row>
     <row r="16">
@@ -6264,22 +6276,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.4</v>
+        <v>-39.76</v>
       </c>
       <c r="D16" t="n">
         <v>-38.97</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.59</v>
+        <v>-40.93</v>
       </c>
       <c r="F16" t="n">
-        <v>-40.01</v>
+        <v>-40.09</v>
       </c>
       <c r="G16" t="n">
-        <v>-53.32</v>
+        <v>-53.69</v>
       </c>
       <c r="H16" t="n">
-        <v>-52.12</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="17">
@@ -6292,22 +6304,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-44.84</v>
+        <v>-44.51</v>
       </c>
       <c r="D17" t="n">
-        <v>-44.09</v>
+        <v>-44.56</v>
       </c>
       <c r="E17" t="n">
-        <v>-46.31</v>
+        <v>-46.18</v>
       </c>
       <c r="F17" t="n">
-        <v>-45.87</v>
+        <v>-46.08</v>
       </c>
       <c r="G17" t="n">
-        <v>-55.59</v>
+        <v>-54.99</v>
       </c>
       <c r="H17" t="n">
-        <v>-52.01</v>
+        <v>-51.85</v>
       </c>
     </row>
     <row r="18">
@@ -6320,22 +6332,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-44.78</v>
+        <v>-42.82</v>
       </c>
       <c r="D18" t="n">
-        <v>-45.28</v>
+        <v>-44.44</v>
       </c>
       <c r="E18" t="n">
-        <v>-46.39</v>
+        <v>-44.62</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.45</v>
+        <v>-46.04</v>
       </c>
       <c r="G18" t="n">
-        <v>-53.31</v>
+        <v>-53.22</v>
       </c>
       <c r="H18" t="n">
-        <v>-53.13</v>
+        <v>-53.66</v>
       </c>
     </row>
     <row r="19">
@@ -6348,22 +6360,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-39.04</v>
+        <v>-39.79</v>
       </c>
       <c r="D19" t="n">
-        <v>-43.16</v>
+        <v>-43.97</v>
       </c>
       <c r="E19" t="n">
-        <v>-40.08</v>
+        <v>-40.79</v>
       </c>
       <c r="F19" t="n">
-        <v>-44.11</v>
+        <v>-45.13</v>
       </c>
       <c r="G19" t="n">
-        <v>-49.72</v>
+        <v>-49.87</v>
       </c>
       <c r="H19" t="n">
-        <v>-53.16</v>
+        <v>-53.55</v>
       </c>
     </row>
     <row r="20">
@@ -6376,22 +6388,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-42.24</v>
+        <v>-42.76</v>
       </c>
       <c r="D20" t="n">
-        <v>-41.36</v>
+        <v>-41.41</v>
       </c>
       <c r="E20" t="n">
-        <v>-43.37</v>
+        <v>-43.98</v>
       </c>
       <c r="F20" t="n">
-        <v>-42.42</v>
+        <v>-42.61</v>
       </c>
       <c r="G20" t="n">
-        <v>-54.42</v>
+        <v>-55.08</v>
       </c>
       <c r="H20" t="n">
-        <v>-52.1</v>
+        <v>-52.68</v>
       </c>
     </row>
     <row r="21">
@@ -6404,22 +6416,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-45.47</v>
+        <v>-43.74</v>
       </c>
       <c r="D21" t="n">
-        <v>-45.54</v>
+        <v>-42.9</v>
       </c>
       <c r="E21" t="n">
-        <v>-47.68</v>
+        <v>-45</v>
       </c>
       <c r="F21" t="n">
-        <v>-47.26</v>
+        <v>-44.36</v>
       </c>
       <c r="G21" t="n">
-        <v>-55.59</v>
+        <v>-54.4</v>
       </c>
       <c r="H21" t="n">
-        <v>-54.01</v>
+        <v>-52.95</v>
       </c>
     </row>
     <row r="22">
@@ -6432,22 +6444,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-42.27</v>
+        <v>-41.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-43.49</v>
+        <v>-43.28</v>
       </c>
       <c r="E22" t="n">
-        <v>-43.71</v>
+        <v>-42.69</v>
       </c>
       <c r="F22" t="n">
-        <v>-44.94</v>
+        <v>-44.38</v>
       </c>
       <c r="G22" t="n">
-        <v>-52.36</v>
+        <v>-52.13</v>
       </c>
       <c r="H22" t="n">
-        <v>-52.78</v>
+        <v>-52.58</v>
       </c>
     </row>
   </sheetData>
@@ -6522,22 +6534,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.93</v>
+        <v>-45.62</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.07</v>
+        <v>-54.05</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.5</v>
+        <v>-47.56</v>
       </c>
       <c r="F2" t="n">
         <v>-54.89</v>
       </c>
       <c r="G2" t="n">
-        <v>-57.98</v>
+        <v>-58.15</v>
       </c>
       <c r="H2" t="n">
-        <v>-55.24</v>
+        <v>-55.61</v>
       </c>
     </row>
     <row r="3">
@@ -6550,22 +6562,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.8</v>
+        <v>-46.12</v>
       </c>
       <c r="D3" t="n">
-        <v>-53.54</v>
+        <v>-53.6</v>
       </c>
       <c r="E3" t="n">
-        <v>-45.56</v>
+        <v>-47.76</v>
       </c>
       <c r="F3" t="n">
-        <v>-54.32</v>
+        <v>-54.39</v>
       </c>
       <c r="G3" t="n">
-        <v>-57.5</v>
+        <v>-57.09</v>
       </c>
       <c r="H3" t="n">
-        <v>-54.9</v>
+        <v>-55.05</v>
       </c>
     </row>
     <row r="4">
@@ -6578,22 +6590,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-43.37</v>
+        <v>-47.78</v>
       </c>
       <c r="D4" t="n">
-        <v>-54.2</v>
+        <v>-54.28</v>
       </c>
       <c r="E4" t="n">
-        <v>-45.56</v>
+        <v>-49.37</v>
       </c>
       <c r="F4" t="n">
-        <v>-54.97</v>
+        <v>-55.08</v>
       </c>
       <c r="G4" t="n">
-        <v>-57.24</v>
+        <v>-57.36</v>
       </c>
       <c r="H4" t="n">
-        <v>-55.45</v>
+        <v>-55.77</v>
       </c>
     </row>
     <row r="5">
@@ -6606,22 +6618,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-45.56</v>
+        <v>-42.9</v>
       </c>
       <c r="D5" t="n">
-        <v>-53.65</v>
+        <v>-53.35</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.02</v>
+        <v>-44.72</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.37</v>
+        <v>-54.13</v>
       </c>
       <c r="G5" t="n">
-        <v>-58.13</v>
+        <v>-58.53</v>
       </c>
       <c r="H5" t="n">
-        <v>-55.45</v>
+        <v>-55.87</v>
       </c>
     </row>
     <row r="6">
@@ -6634,22 +6646,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.86</v>
+        <v>-42.49</v>
       </c>
       <c r="D6" t="n">
-        <v>-53.76</v>
+        <v>-53.81</v>
       </c>
       <c r="E6" t="n">
-        <v>-44.36</v>
+        <v>-44.88</v>
       </c>
       <c r="F6" t="n">
-        <v>-54.57</v>
+        <v>-54.47</v>
       </c>
       <c r="G6" t="n">
-        <v>-56.65</v>
+        <v>-56.79</v>
       </c>
       <c r="H6" t="n">
-        <v>-56.09</v>
+        <v>-56.23</v>
       </c>
     </row>
     <row r="7">
@@ -6662,22 +6674,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.95</v>
+        <v>-42.45</v>
       </c>
       <c r="D7" t="n">
-        <v>-54.17</v>
+        <v>-54.41</v>
       </c>
       <c r="E7" t="n">
-        <v>-47.81</v>
+        <v>-44.5</v>
       </c>
       <c r="F7" t="n">
-        <v>-54.96</v>
+        <v>-55.3</v>
       </c>
       <c r="G7" t="n">
-        <v>-57.02</v>
+        <v>-57.26</v>
       </c>
       <c r="H7" t="n">
-        <v>-56.73</v>
+        <v>-56.72</v>
       </c>
     </row>
     <row r="8">
@@ -6690,22 +6702,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-42.17</v>
+        <v>-42.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-53.47</v>
+        <v>-53.52</v>
       </c>
       <c r="E8" t="n">
-        <v>-44.18</v>
+        <v>-44.36</v>
       </c>
       <c r="F8" t="n">
-        <v>-54.3</v>
+        <v>-54.35</v>
       </c>
       <c r="G8" t="n">
-        <v>-59.76</v>
+        <v>-59.71</v>
       </c>
       <c r="H8" t="n">
-        <v>-56.03</v>
+        <v>-56.23</v>
       </c>
     </row>
     <row r="9">
@@ -6718,22 +6730,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.45</v>
+        <v>-44.33</v>
       </c>
       <c r="D9" t="n">
-        <v>-54.25</v>
+        <v>-54.06</v>
       </c>
       <c r="E9" t="n">
-        <v>-46.23</v>
+        <v>-46.11</v>
       </c>
       <c r="F9" t="n">
-        <v>-55.09</v>
+        <v>-54.84</v>
       </c>
       <c r="G9" t="n">
-        <v>-57.95</v>
+        <v>-57.76</v>
       </c>
       <c r="H9" t="n">
-        <v>-56.05</v>
+        <v>-56.45</v>
       </c>
     </row>
     <row r="10">
@@ -6746,22 +6758,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-41.08</v>
+        <v>-44.59</v>
       </c>
       <c r="D10" t="n">
-        <v>-54.71</v>
+        <v>-55.17</v>
       </c>
       <c r="E10" t="n">
-        <v>-42.96</v>
+        <v>-46.72</v>
       </c>
       <c r="F10" t="n">
-        <v>-55.76</v>
+        <v>-55.91</v>
       </c>
       <c r="G10" t="n">
-        <v>-58.18</v>
+        <v>-58</v>
       </c>
       <c r="H10" t="n">
-        <v>-58.64</v>
+        <v>-58.73</v>
       </c>
     </row>
     <row r="11">
@@ -6774,22 +6786,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-41.55</v>
+        <v>-43.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-53.43</v>
+        <v>-53.41</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.83</v>
+        <v>-45.79</v>
       </c>
       <c r="F11" t="n">
-        <v>-54.25</v>
+        <v>-54.33</v>
       </c>
       <c r="G11" t="n">
-        <v>-58.08</v>
+        <v>-57.88</v>
       </c>
       <c r="H11" t="n">
-        <v>-55.79</v>
+        <v>-55.42</v>
       </c>
     </row>
     <row r="12">
@@ -6802,22 +6814,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-43.78</v>
+        <v>-44.04</v>
       </c>
       <c r="D12" t="n">
-        <v>-54</v>
+        <v>-54.32</v>
       </c>
       <c r="E12" t="n">
         <v>-45.82</v>
       </c>
       <c r="F12" t="n">
-        <v>-54.84</v>
+        <v>-55.29</v>
       </c>
       <c r="G12" t="n">
-        <v>-57.95</v>
+        <v>-57.9</v>
       </c>
       <c r="H12" t="n">
-        <v>-56.22</v>
+        <v>-56.16</v>
       </c>
     </row>
     <row r="13">
@@ -6830,22 +6842,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-41.28</v>
+        <v>-42.19</v>
       </c>
       <c r="D13" t="n">
-        <v>-52.98</v>
+        <v>-53.58</v>
       </c>
       <c r="E13" t="n">
-        <v>-43.48</v>
+        <v>-44.28</v>
       </c>
       <c r="F13" t="n">
-        <v>-53.87</v>
+        <v>-54.53</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.45</v>
+        <v>-57.55</v>
       </c>
       <c r="H13" t="n">
-        <v>-55.63</v>
+        <v>-55.96</v>
       </c>
     </row>
     <row r="14">
@@ -6858,22 +6870,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-40.21</v>
+        <v>-40.58</v>
       </c>
       <c r="D14" t="n">
-        <v>-55.67</v>
+        <v>-54.95</v>
       </c>
       <c r="E14" t="n">
-        <v>-42.73</v>
+        <v>-42.91</v>
       </c>
       <c r="F14" t="n">
-        <v>-56.64</v>
+        <v>-56.16</v>
       </c>
       <c r="G14" t="n">
-        <v>-63.37</v>
+        <v>-62.69</v>
       </c>
       <c r="H14" t="n">
-        <v>-58.22</v>
+        <v>-58.29</v>
       </c>
     </row>
     <row r="15">
@@ -6886,22 +6898,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.18</v>
+        <v>-39.52</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.5</v>
+        <v>-54.9</v>
       </c>
       <c r="E15" t="n">
-        <v>-41.52</v>
+        <v>-41.92</v>
       </c>
       <c r="F15" t="n">
-        <v>-55.5</v>
+        <v>-55.9</v>
       </c>
       <c r="G15" t="n">
-        <v>-60.63</v>
+        <v>-59.89</v>
       </c>
       <c r="H15" t="n">
-        <v>-57.55</v>
+        <v>-57.41</v>
       </c>
     </row>
     <row r="16">
@@ -6914,22 +6926,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.68</v>
+        <v>-40.19</v>
       </c>
       <c r="D16" t="n">
-        <v>-54.86</v>
+        <v>-55.39</v>
       </c>
       <c r="E16" t="n">
-        <v>-41.94</v>
+        <v>-42.57</v>
       </c>
       <c r="F16" t="n">
-        <v>-55.78</v>
+        <v>-56.26</v>
       </c>
       <c r="G16" t="n">
-        <v>-60.02</v>
+        <v>-60.28</v>
       </c>
       <c r="H16" t="n">
-        <v>-59.35</v>
+        <v>-59.2</v>
       </c>
     </row>
     <row r="17">
@@ -6942,22 +6954,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-47.04</v>
+        <v>-45.58</v>
       </c>
       <c r="D17" t="n">
-        <v>-53.4</v>
+        <v>-53.65</v>
       </c>
       <c r="E17" t="n">
-        <v>-48.33</v>
+        <v>-47.63</v>
       </c>
       <c r="F17" t="n">
-        <v>-54.26</v>
+        <v>-54.51</v>
       </c>
       <c r="G17" t="n">
-        <v>-57.9</v>
+        <v>-58</v>
       </c>
       <c r="H17" t="n">
-        <v>-55.45</v>
+        <v>-55.29</v>
       </c>
     </row>
     <row r="18">
@@ -6970,22 +6982,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-43.31</v>
+        <v>-44.02</v>
       </c>
       <c r="D18" t="n">
-        <v>-53.65</v>
+        <v>-53.72</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.02</v>
+        <v>-45.72</v>
       </c>
       <c r="F18" t="n">
-        <v>-54.51</v>
+        <v>-54.49</v>
       </c>
       <c r="G18" t="n">
-        <v>-56.57</v>
+        <v>-56.54</v>
       </c>
       <c r="H18" t="n">
-        <v>-56.02</v>
+        <v>-56.29</v>
       </c>
     </row>
     <row r="19">
@@ -6998,22 +7010,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-41.19</v>
+        <v>-41.9</v>
       </c>
       <c r="D19" t="n">
-        <v>-54.05</v>
+        <v>-53.69</v>
       </c>
       <c r="E19" t="n">
-        <v>-42.87</v>
+        <v>-43.66</v>
       </c>
       <c r="F19" t="n">
-        <v>-55.1</v>
+        <v>-54.73</v>
       </c>
       <c r="G19" t="n">
-        <v>-57.19</v>
+        <v>-57.01</v>
       </c>
       <c r="H19" t="n">
-        <v>-57.79</v>
+        <v>-57.88</v>
       </c>
     </row>
     <row r="20">
@@ -7026,19 +7038,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-41.23</v>
+        <v>-42.95</v>
       </c>
       <c r="D20" t="n">
-        <v>-53.52</v>
+        <v>-53.61</v>
       </c>
       <c r="E20" t="n">
-        <v>-43.53</v>
+        <v>-44.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-54.26</v>
+        <v>-54.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-59.27</v>
+        <v>-58.23</v>
       </c>
       <c r="H20" t="n">
         <v>-55.9</v>
@@ -7054,22 +7066,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-44.94</v>
+        <v>-43.03</v>
       </c>
       <c r="D21" t="n">
-        <v>-54.41</v>
+        <v>-54.24</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.57</v>
+        <v>-44.93</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.2</v>
+        <v>-55.13</v>
       </c>
       <c r="G21" t="n">
-        <v>-58.82</v>
+        <v>-58.4</v>
       </c>
       <c r="H21" t="n">
-        <v>-56.8</v>
+        <v>-56.19</v>
       </c>
     </row>
     <row r="22">
@@ -7082,22 +7094,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-45.19</v>
+        <v>-44.3</v>
       </c>
       <c r="D22" t="n">
-        <v>-54.42</v>
+        <v>-54.34</v>
       </c>
       <c r="E22" t="n">
-        <v>-46.83</v>
+        <v>-45.82</v>
       </c>
       <c r="F22" t="n">
-        <v>-55.29</v>
+        <v>-55.14</v>
       </c>
       <c r="G22" t="n">
-        <v>-57.7</v>
+        <v>-57.9</v>
       </c>
       <c r="H22" t="n">
-        <v>-56.69</v>
+        <v>-56.82</v>
       </c>
     </row>
   </sheetData>
@@ -7172,22 +7184,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-43.82</v>
+        <v>-43.64</v>
       </c>
       <c r="D2" t="n">
-        <v>-43.2</v>
+        <v>-43.21</v>
       </c>
       <c r="E2" t="n">
-        <v>-45.3</v>
+        <v>-45.27</v>
       </c>
       <c r="F2" t="n">
-        <v>-44.67</v>
+        <v>-44.68</v>
       </c>
       <c r="G2" t="n">
-        <v>-53.73</v>
+        <v>-53.56</v>
       </c>
       <c r="H2" t="n">
-        <v>-51.99</v>
+        <v>-52.58</v>
       </c>
     </row>
     <row r="3">
@@ -7200,22 +7212,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-43.29</v>
+        <v>-44.27</v>
       </c>
       <c r="D3" t="n">
-        <v>-43.97</v>
+        <v>-43.87</v>
       </c>
       <c r="E3" t="n">
-        <v>-44.98</v>
+        <v>-45.51</v>
       </c>
       <c r="F3" t="n">
-        <v>-45.4</v>
+        <v>-45.72</v>
       </c>
       <c r="G3" t="n">
-        <v>-53.69</v>
+        <v>-53.44</v>
       </c>
       <c r="H3" t="n">
-        <v>-51.49</v>
+        <v>-51.84</v>
       </c>
     </row>
     <row r="4">
@@ -7228,22 +7240,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-44.27</v>
+        <v>-44.56</v>
       </c>
       <c r="D4" t="n">
-        <v>-43.45</v>
+        <v>-43.87</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.02</v>
+        <v>-46.07</v>
       </c>
       <c r="F4" t="n">
-        <v>-45.18</v>
+        <v>-45.62</v>
       </c>
       <c r="G4" t="n">
-        <v>-53.36</v>
+        <v>-53.5</v>
       </c>
       <c r="H4" t="n">
-        <v>-51.07</v>
+        <v>-51.72</v>
       </c>
     </row>
     <row r="5">
@@ -7256,22 +7268,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-43.53</v>
+        <v>-45.28</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.93</v>
+        <v>-45.45</v>
       </c>
       <c r="E5" t="n">
-        <v>-45.4</v>
+        <v>-46.99</v>
       </c>
       <c r="F5" t="n">
-        <v>-45.35</v>
+        <v>-46.93</v>
       </c>
       <c r="G5" t="n">
-        <v>-54.75</v>
+        <v>-55.4</v>
       </c>
       <c r="H5" t="n">
-        <v>-52.17</v>
+        <v>-52.61</v>
       </c>
     </row>
     <row r="6">
@@ -7284,22 +7296,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-42.92</v>
+        <v>-41.85</v>
       </c>
       <c r="D6" t="n">
-        <v>-43.72</v>
+        <v>-43.38</v>
       </c>
       <c r="E6" t="n">
-        <v>-44.26</v>
+        <v>-43.26</v>
       </c>
       <c r="F6" t="n">
-        <v>-45.3</v>
+        <v>-45.11</v>
       </c>
       <c r="G6" t="n">
-        <v>-53.66</v>
+        <v>-53.28</v>
       </c>
       <c r="H6" t="n">
-        <v>-52.97</v>
+        <v>-53.14</v>
       </c>
     </row>
     <row r="7">
@@ -7312,22 +7324,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-39.95</v>
+        <v>-40.99</v>
       </c>
       <c r="D7" t="n">
-        <v>-41.03</v>
+        <v>-42.69</v>
       </c>
       <c r="E7" t="n">
-        <v>-41.15</v>
+        <v>-42.28</v>
       </c>
       <c r="F7" t="n">
-        <v>-42.43</v>
+        <v>-44.11</v>
       </c>
       <c r="G7" t="n">
-        <v>-52.79</v>
+        <v>-53.11</v>
       </c>
       <c r="H7" t="n">
-        <v>-52.26</v>
+        <v>-53.02</v>
       </c>
     </row>
     <row r="8">
@@ -7340,19 +7352,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-44.06</v>
+        <v>-44.66</v>
       </c>
       <c r="D8" t="n">
-        <v>-43.41</v>
+        <v>-44.42</v>
       </c>
       <c r="E8" t="n">
-        <v>-45.49</v>
+        <v>-46.1</v>
       </c>
       <c r="F8" t="n">
-        <v>-44.9</v>
+        <v>-46.04</v>
       </c>
       <c r="G8" t="n">
-        <v>-55.99</v>
+        <v>-56.07</v>
       </c>
       <c r="H8" t="n">
         <v>-52.29</v>
@@ -7368,22 +7380,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-43.7</v>
+        <v>-44.53</v>
       </c>
       <c r="D9" t="n">
-        <v>-44.01</v>
+        <v>-43.91</v>
       </c>
       <c r="E9" t="n">
-        <v>-45.6</v>
+        <v>-45.88</v>
       </c>
       <c r="F9" t="n">
-        <v>-45.78</v>
+        <v>-45.81</v>
       </c>
       <c r="G9" t="n">
-        <v>-53.95</v>
+        <v>-53.68</v>
       </c>
       <c r="H9" t="n">
-        <v>-52.81</v>
+        <v>-52.84</v>
       </c>
     </row>
     <row r="10">
@@ -7396,22 +7408,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-42.95</v>
+        <v>-43.36</v>
       </c>
       <c r="D10" t="n">
-        <v>-43.6</v>
+        <v>-43.94</v>
       </c>
       <c r="E10" t="n">
-        <v>-44.23</v>
+        <v>-45.05</v>
       </c>
       <c r="F10" t="n">
-        <v>-45</v>
+        <v>-45.98</v>
       </c>
       <c r="G10" t="n">
-        <v>-52.93</v>
+        <v>-53.39</v>
       </c>
       <c r="H10" t="n">
-        <v>-55.22</v>
+        <v>-54.92</v>
       </c>
     </row>
     <row r="11">
@@ -7424,22 +7436,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-42.4</v>
+        <v>-42.15</v>
       </c>
       <c r="D11" t="n">
-        <v>-41.05</v>
+        <v>-40.9</v>
       </c>
       <c r="E11" t="n">
-        <v>-43.65</v>
+        <v>-43.5</v>
       </c>
       <c r="F11" t="n">
-        <v>-42.56</v>
+        <v>-42.26</v>
       </c>
       <c r="G11" t="n">
-        <v>-54.55</v>
+        <v>-54.53</v>
       </c>
       <c r="H11" t="n">
-        <v>-52.36</v>
+        <v>-52.56</v>
       </c>
     </row>
     <row r="12">
@@ -7452,22 +7464,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-44.2</v>
+        <v>-42.87</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.29</v>
+        <v>-43.84</v>
       </c>
       <c r="E12" t="n">
-        <v>-45.9</v>
+        <v>-44.87</v>
       </c>
       <c r="F12" t="n">
-        <v>-45.81</v>
+        <v>-45.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-54.82</v>
+        <v>-54.2</v>
       </c>
       <c r="H12" t="n">
-        <v>-54.02</v>
+        <v>-53.61</v>
       </c>
     </row>
     <row r="13">
@@ -7480,22 +7492,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-40.91</v>
+        <v>-40.7</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.1</v>
+        <v>-39.49</v>
       </c>
       <c r="E13" t="n">
-        <v>-42.24</v>
+        <v>-41.93</v>
       </c>
       <c r="F13" t="n">
-        <v>-41.47</v>
+        <v>-40.74</v>
       </c>
       <c r="G13" t="n">
-        <v>-53.71</v>
+        <v>-54.22</v>
       </c>
       <c r="H13" t="n">
-        <v>-52.08</v>
+        <v>-52.31</v>
       </c>
     </row>
     <row r="14">
@@ -7508,22 +7520,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-40.28</v>
+        <v>-39.48</v>
       </c>
       <c r="D14" t="n">
-        <v>-37.04</v>
+        <v>-37.08</v>
       </c>
       <c r="E14" t="n">
-        <v>-41.48</v>
+        <v>-40.89</v>
       </c>
       <c r="F14" t="n">
-        <v>-38.18</v>
+        <v>-38.03</v>
       </c>
       <c r="G14" t="n">
-        <v>-52.66</v>
+        <v>-52.44</v>
       </c>
       <c r="H14" t="n">
-        <v>-49.95</v>
+        <v>-50.36</v>
       </c>
     </row>
     <row r="15">
@@ -7536,22 +7548,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-39.19</v>
+        <v>-39.69</v>
       </c>
       <c r="D15" t="n">
-        <v>-37.47</v>
+        <v>-38.21</v>
       </c>
       <c r="E15" t="n">
-        <v>-40.45</v>
+        <v>-40.92</v>
       </c>
       <c r="F15" t="n">
-        <v>-38.49</v>
+        <v>-39.15</v>
       </c>
       <c r="G15" t="n">
-        <v>-53.23</v>
+        <v>-53.43</v>
       </c>
       <c r="H15" t="n">
-        <v>-50.82</v>
+        <v>-51.94</v>
       </c>
     </row>
     <row r="16">
@@ -7564,22 +7576,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-39.78</v>
+        <v>-39.18</v>
       </c>
       <c r="D16" t="n">
-        <v>-39.19</v>
+        <v>-38.65</v>
       </c>
       <c r="E16" t="n">
-        <v>-40.89</v>
+        <v>-40.45</v>
       </c>
       <c r="F16" t="n">
-        <v>-40.24</v>
+        <v>-39.82</v>
       </c>
       <c r="G16" t="n">
-        <v>-53.85</v>
+        <v>-52.92</v>
       </c>
       <c r="H16" t="n">
-        <v>-52.76</v>
+        <v>-52.16</v>
       </c>
     </row>
     <row r="17">
@@ -7592,22 +7604,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-42.44</v>
+        <v>-42.64</v>
       </c>
       <c r="D17" t="n">
-        <v>-42.24</v>
+        <v>-42.64</v>
       </c>
       <c r="E17" t="n">
-        <v>-43.73</v>
+        <v>-44.13</v>
       </c>
       <c r="F17" t="n">
-        <v>-43.54</v>
+        <v>-43.94</v>
       </c>
       <c r="G17" t="n">
-        <v>-54.28</v>
+        <v>-54.84</v>
       </c>
       <c r="H17" t="n">
-        <v>-51.56</v>
+        <v>-52.1</v>
       </c>
     </row>
     <row r="18">
@@ -7620,22 +7632,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-43.8</v>
+        <v>-42.37</v>
       </c>
       <c r="D18" t="n">
-        <v>-45.77</v>
+        <v>-43.27</v>
       </c>
       <c r="E18" t="n">
-        <v>-45.61</v>
+        <v>-43.77</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.11</v>
+        <v>-45.05</v>
       </c>
       <c r="G18" t="n">
-        <v>-53.02</v>
+        <v>-52.78</v>
       </c>
       <c r="H18" t="n">
-        <v>-52.86</v>
+        <v>-53.04</v>
       </c>
     </row>
     <row r="19">
@@ -7648,22 +7660,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-38.25</v>
+        <v>-40.27</v>
       </c>
       <c r="D19" t="n">
-        <v>-42.2</v>
+        <v>-44.92</v>
       </c>
       <c r="E19" t="n">
-        <v>-39.27</v>
+        <v>-41.22</v>
       </c>
       <c r="F19" t="n">
-        <v>-43.46</v>
+        <v>-46.29</v>
       </c>
       <c r="G19" t="n">
-        <v>-49.52</v>
+        <v>-49.89</v>
       </c>
       <c r="H19" t="n">
-        <v>-52.54</v>
+        <v>-53.31</v>
       </c>
     </row>
     <row r="20">
@@ -7676,22 +7688,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-42.55</v>
+        <v>-41.79</v>
       </c>
       <c r="D20" t="n">
-        <v>-41.22</v>
+        <v>-40.81</v>
       </c>
       <c r="E20" t="n">
-        <v>-43.78</v>
+        <v>-43.23</v>
       </c>
       <c r="F20" t="n">
-        <v>-42.64</v>
+        <v>-42.13</v>
       </c>
       <c r="G20" t="n">
-        <v>-54.09</v>
+        <v>-54.34</v>
       </c>
       <c r="H20" t="n">
-        <v>-52.02</v>
+        <v>-52.08</v>
       </c>
     </row>
     <row r="21">
@@ -7704,22 +7716,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-44.83</v>
+        <v>-42.83</v>
       </c>
       <c r="D21" t="n">
-        <v>-44.69</v>
+        <v>-42.37</v>
       </c>
       <c r="E21" t="n">
-        <v>-46.53</v>
+        <v>-44.35</v>
       </c>
       <c r="F21" t="n">
-        <v>-46.1</v>
+        <v>-43.9</v>
       </c>
       <c r="G21" t="n">
-        <v>-55.34</v>
+        <v>-54.73</v>
       </c>
       <c r="H21" t="n">
-        <v>-53.74</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="22">
@@ -7732,22 +7744,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-41.62</v>
+        <v>-42.35</v>
       </c>
       <c r="D22" t="n">
-        <v>-42.72</v>
+        <v>-44.21</v>
       </c>
       <c r="E22" t="n">
-        <v>-42.91</v>
+        <v>-43.55</v>
       </c>
       <c r="F22" t="n">
-        <v>-44.3</v>
+        <v>-45.57</v>
       </c>
       <c r="G22" t="n">
-        <v>-52.2</v>
+        <v>-52.51</v>
       </c>
       <c r="H22" t="n">
-        <v>-52.73</v>
+        <v>-53.08</v>
       </c>
     </row>
   </sheetData>
@@ -7797,13 +7809,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="D2" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="3">
@@ -7811,13 +7823,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="C3" t="n">
-        <v>1.32</v>
+        <v>2.19</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="4">
@@ -7825,13 +7837,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="5">
@@ -7839,13 +7851,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="C5" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="D5" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="6">
@@ -7853,13 +7865,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2.14</v>
+        <v>1.55</v>
       </c>
       <c r="C6" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="7">
@@ -7867,13 +7879,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="C7" t="n">
-        <v>2.09</v>
+        <v>1.49</v>
       </c>
       <c r="D7" t="n">
-        <v>1.85</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="8">
@@ -7881,13 +7893,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="C8" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="D8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>
@@ -7937,13 +7949,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3">
@@ -7951,13 +7963,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.12</v>
+        <v>0.93</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="D3" t="n">
-        <v>1.16</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -7965,13 +7977,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.17</v>
+        <v>0.88</v>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1.08</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5">
@@ -7979,13 +7991,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="C5" t="n">
-        <v>0.96</v>
+        <v>1.05</v>
       </c>
       <c r="D5" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -7993,13 +8005,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="D6" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="7">
@@ -8007,13 +8019,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C7" t="n">
-        <v>1.02</v>
+        <v>0.83</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8">
@@ -8021,13 +8033,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="C8" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -8077,13 +8089,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="D2" t="n">
-        <v>1.54</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="3">
@@ -8091,13 +8103,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="C3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="D3" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4">
@@ -8105,13 +8117,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="C4" t="n">
-        <v>2.26</v>
+        <v>1.67</v>
       </c>
       <c r="D4" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="5">
@@ -8119,13 +8131,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="C5" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="D5" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -8133,13 +8145,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="C6" t="n">
-        <v>2.64</v>
+        <v>2.27</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="7">
@@ -8147,13 +8159,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="C7" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="D7" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
@@ -8161,13 +8173,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="C8" t="n">
-        <v>2.06</v>
+        <v>2.15</v>
       </c>
       <c r="D8" t="n">
-        <v>1.57</v>
+        <v>2.26</v>
       </c>
     </row>
   </sheetData>
@@ -8217,13 +8229,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="C2" t="n">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
       <c r="D2" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3">
@@ -8231,13 +8243,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="D3" t="n">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -8245,13 +8257,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.46</v>
+        <v>1.22</v>
       </c>
       <c r="C4" t="n">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -8259,13 +8271,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="C5" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="D5" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="6">
@@ -8273,13 +8285,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="C6" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="D6" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7">
@@ -8287,13 +8299,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="D7" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="8">
@@ -8301,13 +8313,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="D8" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -8357,13 +8369,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.11</v>
+        <v>1.76</v>
       </c>
       <c r="C2" t="n">
         <v>1.64</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="3">
@@ -8371,13 +8383,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="C3" t="n">
-        <v>3.41</v>
+        <v>1.85</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4">
@@ -8385,13 +8397,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="C4" t="n">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="5">
@@ -8399,13 +8411,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.96</v>
+        <v>1.77</v>
       </c>
       <c r="C5" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="D5" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="6">
@@ -8413,13 +8425,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="C6" t="n">
-        <v>2.55</v>
+        <v>2.53</v>
       </c>
       <c r="D6" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7">
@@ -8427,13 +8439,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="D7" t="n">
-        <v>2.18</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="8">
@@ -8441,13 +8453,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="C8" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="D8" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
     </row>
   </sheetData>
@@ -8497,13 +8509,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.93</v>
+        <v>1.12</v>
       </c>
       <c r="C2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="D2" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -8511,13 +8523,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
       <c r="C3" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="D3" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="4">
@@ -8525,13 +8537,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="C4" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -8539,10 +8551,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="C5" t="n">
-        <v>1.33</v>
+        <v>1.02</v>
       </c>
       <c r="D5" t="n">
         <v>1.65</v>
@@ -8553,13 +8565,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="D6" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="7">
@@ -8567,13 +8579,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="8">
@@ -8581,13 +8593,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="C8" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="D8" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -8637,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>24.75</v>
+        <v>24.37</v>
       </c>
       <c r="C2" t="n">
-        <v>24.85</v>
+        <v>24.47</v>
       </c>
       <c r="D2" t="n">
-        <v>24.84</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3">
@@ -8651,13 +8663,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>24.85</v>
+        <v>24.48</v>
       </c>
       <c r="C3" t="n">
-        <v>24.84</v>
+        <v>24.52</v>
       </c>
       <c r="D3" t="n">
-        <v>24.77</v>
+        <v>24.41</v>
       </c>
     </row>
     <row r="4">
@@ -8665,13 +8677,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.02</v>
+        <v>24.52</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>24.57</v>
       </c>
       <c r="D4" t="n">
-        <v>24.92</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="5">
@@ -8679,13 +8691,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>24.67</v>
+        <v>24.06</v>
       </c>
       <c r="C5" t="n">
-        <v>24.64</v>
+        <v>24.09</v>
       </c>
       <c r="D5" t="n">
-        <v>24.6</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="6">
@@ -8693,13 +8705,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>25.1</v>
+        <v>24.53</v>
       </c>
       <c r="C6" t="n">
-        <v>24.94</v>
+        <v>24.43</v>
       </c>
       <c r="D6" t="n">
-        <v>24.89</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="7">
@@ -8707,13 +8719,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>24.75</v>
+        <v>24.46</v>
       </c>
       <c r="C7" t="n">
-        <v>24.77</v>
+        <v>24.52</v>
       </c>
       <c r="D7" t="n">
-        <v>24.83</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="8">
@@ -8721,13 +8733,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>24.94</v>
+        <v>24.26</v>
       </c>
       <c r="C8" t="n">
-        <v>24.93</v>
+        <v>24.33</v>
       </c>
       <c r="D8" t="n">
-        <v>24.94</v>
+        <v>24.31</v>
       </c>
     </row>
   </sheetData>
@@ -8777,13 +8789,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.71</v>
+        <v>23.38</v>
       </c>
       <c r="C2" t="n">
-        <v>23.69</v>
+        <v>23.29</v>
       </c>
       <c r="D2" t="n">
-        <v>23.77</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="3">
@@ -8791,13 +8803,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.81</v>
+        <v>23.33</v>
       </c>
       <c r="C3" t="n">
-        <v>23.88</v>
+        <v>23.51</v>
       </c>
       <c r="D3" t="n">
-        <v>23.76</v>
+        <v>23.38</v>
       </c>
     </row>
     <row r="4">
@@ -8805,13 +8817,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.03</v>
+        <v>23.53</v>
       </c>
       <c r="C4" t="n">
-        <v>23.95</v>
+        <v>23.58</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>23.55</v>
       </c>
     </row>
     <row r="5">
@@ -8819,13 +8831,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.11</v>
       </c>
       <c r="C5" t="n">
-        <v>23.58</v>
+        <v>23.03</v>
       </c>
       <c r="D5" t="n">
-        <v>23.68</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="6">
@@ -8833,13 +8845,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.02</v>
+        <v>23.51</v>
       </c>
       <c r="C6" t="n">
-        <v>23.86</v>
+        <v>23.35</v>
       </c>
       <c r="D6" t="n">
-        <v>23.9</v>
+        <v>23.45</v>
       </c>
     </row>
     <row r="7">
@@ -8847,13 +8859,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.75</v>
+        <v>23.29</v>
       </c>
       <c r="C7" t="n">
-        <v>23.74</v>
+        <v>23.45</v>
       </c>
       <c r="D7" t="n">
-        <v>23.73</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="8">
@@ -8861,13 +8873,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.98</v>
+        <v>23.3</v>
       </c>
       <c r="C8" t="n">
-        <v>23.84</v>
+        <v>23.34</v>
       </c>
       <c r="D8" t="n">
-        <v>23.83</v>
+        <v>23.26</v>
       </c>
     </row>
   </sheetData>
@@ -8917,13 +8929,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>23.69</v>
+        <v>23.44</v>
       </c>
       <c r="C2" t="n">
-        <v>23.72</v>
+        <v>23.33</v>
       </c>
       <c r="D2" t="n">
-        <v>23.77</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="3">
@@ -8931,13 +8943,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>23.72</v>
+        <v>23.46</v>
       </c>
       <c r="C3" t="n">
-        <v>23.94</v>
+        <v>23.38</v>
       </c>
       <c r="D3" t="n">
-        <v>23.79</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="4">
@@ -8945,13 +8957,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.99</v>
+        <v>23.46</v>
       </c>
       <c r="C4" t="n">
-        <v>23.99</v>
+        <v>23.6</v>
       </c>
       <c r="D4" t="n">
-        <v>23.92</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="5">
@@ -8959,13 +8971,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.11</v>
       </c>
       <c r="C5" t="n">
-        <v>23.53</v>
+        <v>23.09</v>
       </c>
       <c r="D5" t="n">
-        <v>23.76</v>
+        <v>23.14</v>
       </c>
     </row>
     <row r="6">
@@ -8973,13 +8985,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>24.08</v>
+        <v>23.46</v>
       </c>
       <c r="C6" t="n">
-        <v>23.81</v>
+        <v>23.49</v>
       </c>
       <c r="D6" t="n">
-        <v>23.94</v>
+        <v>23.59</v>
       </c>
     </row>
     <row r="7">
@@ -8987,13 +8999,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>23.7</v>
+        <v>23.36</v>
       </c>
       <c r="C7" t="n">
-        <v>23.77</v>
+        <v>23.41</v>
       </c>
       <c r="D7" t="n">
-        <v>23.74</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="8">
@@ -9001,13 +9013,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>23.89</v>
+        <v>23.28</v>
       </c>
       <c r="C8" t="n">
-        <v>23.89</v>
+        <v>23.42</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>23.4</v>
       </c>
     </row>
   </sheetData>
@@ -9057,13 +9069,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.72</v>
+        <v>22.35</v>
       </c>
       <c r="C2" t="n">
-        <v>22.69</v>
+        <v>22.31</v>
       </c>
       <c r="D2" t="n">
-        <v>22.82</v>
+        <v>22.39</v>
       </c>
     </row>
     <row r="3">
@@ -9071,13 +9083,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.75</v>
+        <v>21.36</v>
       </c>
       <c r="C3" t="n">
-        <v>21.83</v>
+        <v>21.52</v>
       </c>
       <c r="D3" t="n">
-        <v>21.75</v>
+        <v>21.33</v>
       </c>
     </row>
     <row r="4">
@@ -9085,13 +9097,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.97</v>
+        <v>22.49</v>
       </c>
       <c r="C4" t="n">
-        <v>22.97</v>
+        <v>22.51</v>
       </c>
       <c r="D4" t="n">
-        <v>22.93</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="5">
@@ -9099,13 +9111,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.59</v>
+        <v>22.02</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63</v>
+        <v>22.06</v>
       </c>
       <c r="D5" t="n">
-        <v>22.61</v>
+        <v>22.05</v>
       </c>
     </row>
     <row r="6">
@@ -9113,13 +9125,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.89</v>
+        <v>22.43</v>
       </c>
       <c r="C6" t="n">
-        <v>22.98</v>
+        <v>22.43</v>
       </c>
       <c r="D6" t="n">
-        <v>22.81</v>
+        <v>22.46</v>
       </c>
     </row>
     <row r="7">
@@ -9127,13 +9139,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.78</v>
+        <v>22.34</v>
       </c>
       <c r="C7" t="n">
-        <v>22.66</v>
+        <v>22.29</v>
       </c>
       <c r="D7" t="n">
-        <v>22.58</v>
+        <v>22.27</v>
       </c>
     </row>
     <row r="8">
@@ -9141,13 +9153,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9</v>
+        <v>21.23</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8</v>
+        <v>21.28</v>
       </c>
       <c r="D8" t="n">
-        <v>21.88</v>
+        <v>21.34</v>
       </c>
     </row>
   </sheetData>
@@ -9197,13 +9209,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>22.84</v>
+        <v>22.3</v>
       </c>
       <c r="C2" t="n">
-        <v>22.83</v>
+        <v>22.54</v>
       </c>
       <c r="D2" t="n">
-        <v>22.94</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="3">
@@ -9211,13 +9223,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>22.68</v>
+        <v>22.39</v>
       </c>
       <c r="C3" t="n">
-        <v>22.95</v>
+        <v>22.52</v>
       </c>
       <c r="D3" t="n">
-        <v>22.79</v>
+        <v>22.31</v>
       </c>
     </row>
     <row r="4">
@@ -9225,13 +9237,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.87</v>
+        <v>22.54</v>
       </c>
       <c r="C4" t="n">
-        <v>23.01</v>
+        <v>22.82</v>
       </c>
       <c r="D4" t="n">
-        <v>23.06</v>
+        <v>22.47</v>
       </c>
     </row>
     <row r="5">
@@ -9239,13 +9251,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>22.55</v>
+        <v>21.85</v>
       </c>
       <c r="C5" t="n">
-        <v>22.51</v>
+        <v>22.07</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6</v>
+        <v>22.14</v>
       </c>
     </row>
     <row r="6">
@@ -9253,13 +9265,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>22.82</v>
+        <v>22.37</v>
       </c>
       <c r="C6" t="n">
-        <v>22.89</v>
+        <v>22.33</v>
       </c>
       <c r="D6" t="n">
-        <v>22.84</v>
+        <v>22.45</v>
       </c>
     </row>
     <row r="7">
@@ -9267,13 +9279,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>22.78</v>
+        <v>22.3</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8</v>
+        <v>22.39</v>
       </c>
       <c r="D7" t="n">
-        <v>22.92</v>
+        <v>22.36</v>
       </c>
     </row>
     <row r="8">
@@ -9281,13 +9293,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>22.99</v>
+        <v>22.27</v>
       </c>
       <c r="C8" t="n">
-        <v>23.14</v>
+        <v>22.37</v>
       </c>
       <c r="D8" t="n">
-        <v>22.61</v>
+        <v>22.23</v>
       </c>
     </row>
   </sheetData>
@@ -9337,13 +9349,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21.82</v>
+        <v>21.44</v>
       </c>
       <c r="C2" t="n">
-        <v>21.82</v>
+        <v>21.49</v>
       </c>
       <c r="D2" t="n">
-        <v>21.89</v>
+        <v>21.39</v>
       </c>
     </row>
     <row r="3">
@@ -9351,13 +9363,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.82</v>
+        <v>21.48</v>
       </c>
       <c r="C3" t="n">
-        <v>21.87</v>
+        <v>21.48</v>
       </c>
       <c r="D3" t="n">
-        <v>21.91</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="4">
@@ -9365,13 +9377,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22.02</v>
+        <v>21.57</v>
       </c>
       <c r="C4" t="n">
-        <v>22.04</v>
+        <v>21.63</v>
       </c>
       <c r="D4" t="n">
-        <v>22.04</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="5">
@@ -9379,13 +9391,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21.68</v>
+        <v>21.09</v>
       </c>
       <c r="C5" t="n">
-        <v>21.55</v>
+        <v>21.05</v>
       </c>
       <c r="D5" t="n">
-        <v>21.73</v>
+        <v>21.04</v>
       </c>
     </row>
     <row r="6">
@@ -9393,13 +9405,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>21.99</v>
+        <v>21.52</v>
       </c>
       <c r="C6" t="n">
-        <v>21.92</v>
+        <v>21.5</v>
       </c>
       <c r="D6" t="n">
-        <v>21.96</v>
+        <v>21.51</v>
       </c>
     </row>
     <row r="7">
@@ -9407,13 +9419,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>21.86</v>
+        <v>21.4</v>
       </c>
       <c r="C7" t="n">
-        <v>21.89</v>
+        <v>21.43</v>
       </c>
       <c r="D7" t="n">
-        <v>21.73</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="8">
@@ -9421,13 +9433,13 @@
         <v>66</v>
       </c>
       <c r="B8" t="n">
-        <v>21.95</v>
+        <v>21.32</v>
       </c>
       <c r="C8" t="n">
-        <v>21.93</v>
+        <v>21.3</v>
       </c>
       <c r="D8" t="n">
-        <v>21.76</v>
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>
@@ -9502,22 +9514,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-45.49</v>
+        <v>-46.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-54.89</v>
+        <v>-55.29</v>
       </c>
       <c r="E2" t="n">
-        <v>-46.75</v>
+        <v>-47.29</v>
       </c>
       <c r="F2" t="n">
-        <v>-55.67</v>
+        <v>-56.16</v>
       </c>
       <c r="G2" t="n">
-        <v>-58.52</v>
+        <v>-58.57</v>
       </c>
       <c r="H2" t="n">
-        <v>-56.39</v>
+        <v>-56.78</v>
       </c>
     </row>
     <row r="3">
@@ -9530,22 +9542,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-45.62</v>
+        <v>-49.95</v>
       </c>
       <c r="D3" t="n">
-        <v>-54.93</v>
+        <v>-54.95</v>
       </c>
       <c r="E3" t="n">
-        <v>-47.36</v>
+        <v>-51.18</v>
       </c>
       <c r="F3" t="n">
-        <v>-55.6</v>
+        <v>-55.67</v>
       </c>
       <c r="G3" t="n">
-        <v>-58.67</v>
+        <v>-58.59</v>
       </c>
       <c r="H3" t="n">
-        <v>-56.57</v>
+        <v>-56.85</v>
       </c>
     </row>
     <row r="4">
@@ -9558,22 +9570,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45.47</v>
+        <v>-49.47</v>
       </c>
       <c r="D4" t="n">
-        <v>-55.24</v>
+        <v>-55.61</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.86</v>
+        <v>-51.36</v>
       </c>
       <c r="F4" t="n">
-        <v>-55.99</v>
+        <v>-56.38</v>
       </c>
       <c r="G4" t="n">
-        <v>-58.09</v>
+        <v>-58.29</v>
       </c>
       <c r="H4" t="n">
-        <v>-56.85</v>
+        <v>-57.34</v>
       </c>
     </row>
     <row r="5">
@@ -9586,22 +9598,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.47</v>
+        <v>-48.84</v>
       </c>
       <c r="D5" t="n">
-        <v>-54.27</v>
+        <v>-54.59</v>
       </c>
       <c r="E5" t="n">
-        <v>-47.96</v>
+        <v>-50.4</v>
       </c>
       <c r="F5" t="n">
-        <v>-54.87</v>
+        <v>-55.32</v>
       </c>
       <c r="G5" t="n">
-        <v>-58.79</v>
+        <v>-59.08</v>
       </c>
       <c r="H5" t="n">
-        <v>-56.49</v>
+        <v>-56.71</v>
       </c>
     </row>
     <row r="6">
@@ -9614,22 +9626,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-47.21</v>
+        <v>-48.12</v>
       </c>
       <c r="D6" t="n">
-        <v>-54.64</v>
+        <v>-55.05</v>
       </c>
       <c r="E6" t="n">
-        <v>-48.73</v>
+        <v>-49.72</v>
       </c>
       <c r="F6" t="n">
-        <v>-55.35</v>
+        <v>-55.85</v>
       </c>
       <c r="G6" t="n">
-        <v>-57.68</v>
+        <v>-57.5</v>
       </c>
       <c r="H6" t="n">
-        <v>-56.84</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="7">
@@ -9642,22 +9654,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-45.92</v>
+        <v>-46.14</v>
       </c>
       <c r="D7" t="n">
-        <v>-55.19</v>
+        <v>-54.85</v>
       </c>
       <c r="E7" t="n">
-        <v>-48.23</v>
+        <v>-48.08</v>
       </c>
       <c r="F7" t="n">
-        <v>-55.88</v>
+        <v>-55.66</v>
       </c>
       <c r="G7" t="n">
-        <v>-57.87</v>
+        <v>-57.56</v>
       </c>
       <c r="H7" t="n">
-        <v>-57.43</v>
+        <v>-57.6</v>
       </c>
     </row>
     <row r="8">
@@ -9670,22 +9682,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.01</v>
+        <v>-46.24</v>
       </c>
       <c r="D8" t="n">
-        <v>-55.38</v>
+        <v>-55.05</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.54</v>
+        <v>-47.51</v>
       </c>
       <c r="F8" t="n">
-        <v>-56.14</v>
+        <v>-55.83</v>
       </c>
       <c r="G8" t="n">
-        <v>-61.44</v>
+        <v>-60.81</v>
       </c>
       <c r="H8" t="n">
-        <v>-57.65</v>
+        <v>-57.51</v>
       </c>
     </row>
     <row r="9">
@@ -9698,22 +9710,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-48.12</v>
+        <v>-47.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-55.19</v>
+        <v>-54.93</v>
       </c>
       <c r="E9" t="n">
-        <v>-49.8</v>
+        <v>-48.93</v>
       </c>
       <c r="F9" t="n">
-        <v>-55.91</v>
+        <v>-55.85</v>
       </c>
       <c r="G9" t="n">
-        <v>-58.51</v>
+        <v>-58.37</v>
       </c>
       <c r="H9" t="n">
-        <v>-57.46</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="10">
@@ -9726,22 +9738,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-46.06</v>
+        <v>-47.8</v>
       </c>
       <c r="D10" t="n">
-        <v>-55.8</v>
+        <v>-55.69</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.96</v>
+        <v>-49.48</v>
       </c>
       <c r="F10" t="n">
-        <v>-56.56</v>
+        <v>-56.53</v>
       </c>
       <c r="G10" t="n">
-        <v>-58.38</v>
+        <v>-58.08</v>
       </c>
       <c r="H10" t="n">
-        <v>-59.64</v>
+        <v>-59.8</v>
       </c>
     </row>
     <row r="11">
@@ -9754,22 +9766,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.95</v>
+        <v>-46.89</v>
       </c>
       <c r="D11" t="n">
-        <v>-54.77</v>
+        <v>-54.83</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.51</v>
+        <v>-49.19</v>
       </c>
       <c r="F11" t="n">
-        <v>-55.45</v>
+        <v>-55.64</v>
       </c>
       <c r="G11" t="n">
-        <v>-59.61</v>
+        <v>-59.11</v>
       </c>
       <c r="H11" t="n">
-        <v>-56.99</v>
+        <v>-57.19</v>
       </c>
     </row>
     <row r="12">
@@ -9782,22 +9794,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-47.31</v>
+        <v>-46.84</v>
       </c>
       <c r="D12" t="n">
-        <v>-54.07</v>
+        <v>-54.4</v>
       </c>
       <c r="E12" t="n">
-        <v>-49.33</v>
+        <v>-48.84</v>
       </c>
       <c r="F12" t="n">
-        <v>-55.05</v>
+        <v>-55.36</v>
       </c>
       <c r="G12" t="n">
-        <v>-58.13</v>
+        <v>-58.04</v>
       </c>
       <c r="H12" t="n">
-        <v>-57.09</v>
+        <v>-56.48</v>
       </c>
     </row>
     <row r="13">
@@ -9810,22 +9822,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-43.45</v>
+        <v>-44.17</v>
       </c>
       <c r="D13" t="n">
-        <v>-53.82</v>
+        <v>-54.08</v>
       </c>
       <c r="E13" t="n">
-        <v>-45.57</v>
+        <v>-46.83</v>
       </c>
       <c r="F13" t="n">
-        <v>-54.5</v>
+        <v>-54.82</v>
       </c>
       <c r="G13" t="n">
-        <v>-57.98</v>
+        <v>-58.06</v>
       </c>
       <c r="H13" t="n">
-        <v>-56.71</v>
+        <v>-56.93</v>
       </c>
     </row>
     <row r="14">
@@ -9838,22 +9850,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-41.98</v>
+        <v>-42.08</v>
       </c>
       <c r="D14" t="n">
-        <v>-54.81</v>
+        <v>-54.85</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.04</v>
+        <v>-43.81</v>
       </c>
       <c r="F14" t="n">
-        <v>-55.97</v>
+        <v>-55.91</v>
       </c>
       <c r="G14" t="n">
-        <v>-61.81</v>
+        <v>-61.55</v>
       </c>
       <c r="H14" t="n">
-        <v>-58.89</v>
+        <v>-59.29</v>
       </c>
     </row>
     <row r="15">
@@ -9866,22 +9878,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.52</v>
+        <v>-41.59</v>
       </c>
       <c r="D15" t="n">
-        <v>-54.86</v>
+        <v>-55.22</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.63</v>
+        <v>-43.67</v>
       </c>
       <c r="F15" t="n">
-        <v>-55.74</v>
+        <v>-56.21</v>
       </c>
       <c r="G15" t="n">
-        <v>-60.34</v>
+        <v>-60.39</v>
       </c>
       <c r="H15" t="n">
-        <v>-58.8</v>
+        <v>-58.61</v>
       </c>
     </row>
     <row r="16">
@@ -9894,22 +9906,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-42.02</v>
+        <v>-41.14</v>
       </c>
       <c r="D16" t="n">
-        <v>-55.77</v>
+        <v>-55.04</v>
       </c>
       <c r="E16" t="n">
-        <v>-44.41</v>
+        <v>-43.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-56.67</v>
+        <v>-55.92</v>
       </c>
       <c r="G16" t="n">
-        <v>-60.42</v>
+        <v>-59.81</v>
       </c>
       <c r="H16" t="n">
-        <v>-59.86</v>
+        <v>-59.91</v>
       </c>
     </row>
     <row r="17">
@@ -9922,22 +9934,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-46.27</v>
+        <v>-47.83</v>
       </c>
       <c r="D17" t="n">
-        <v>-54.42</v>
+        <v>-54.73</v>
       </c>
       <c r="E17" t="n">
-        <v>-47.55</v>
+        <v>-49.05</v>
       </c>
       <c r="F17" t="n">
-        <v>-55.11</v>
+        <v>-55.49</v>
       </c>
       <c r="G17" t="n">
-        <v>-58.95</v>
+        <v>-59.34</v>
       </c>
       <c r="H17" t="n">
-        <v>-56.53</v>
+        <v>-56.82</v>
       </c>
     </row>
     <row r="18">
@@ -9950,22 +9962,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-46.85</v>
+        <v>-46.95</v>
       </c>
       <c r="D18" t="n">
-        <v>-54.81</v>
+        <v>-55.31</v>
       </c>
       <c r="E18" t="n">
-        <v>-48.6</v>
+        <v>-48.43</v>
       </c>
       <c r="F18" t="n">
-        <v>-55.59</v>
+        <v>-56.14</v>
       </c>
       <c r="G18" t="n">
-        <v>-57.16</v>
+        <v>-57.49</v>
       </c>
       <c r="H18" t="n">
-        <v>-57.05</v>
+        <v>-57.53</v>
       </c>
     </row>
     <row r="19">
@@ -9978,22 +9990,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-45.11</v>
+        <v>-43.76</v>
       </c>
       <c r="D19" t="n">
-        <v>-55.31</v>
+        <v>-55.11</v>
       </c>
       <c r="E19" t="n">
-        <v>-46.65</v>
+        <v>-45.26</v>
       </c>
       <c r="F19" t="n">
-        <v>-56.27</v>
+        <v>-56.22</v>
       </c>
       <c r="G19" t="n">
-        <v>-58.12</v>
+        <v>-57.4</v>
       </c>
       <c r="H19" t="n">
-        <v>-59.22</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="20">
@@ -10006,22 +10018,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-45.92</v>
+        <v>-45.97</v>
       </c>
       <c r="D20" t="n">
-        <v>-55.02</v>
+        <v>-54.77</v>
       </c>
       <c r="E20" t="n">
-        <v>-47.57</v>
+        <v>-47.86</v>
       </c>
       <c r="F20" t="n">
-        <v>-55.74</v>
+        <v>-55.55</v>
       </c>
       <c r="G20" t="n">
-        <v>-59.52</v>
+        <v>-59.59</v>
       </c>
       <c r="H20" t="n">
-        <v>-57.28</v>
+        <v>-56.78</v>
       </c>
     </row>
     <row r="21">
@@ -10034,22 +10046,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-49.46</v>
+        <v>-46.28</v>
       </c>
       <c r="D21" t="n">
-        <v>-54.5</v>
+        <v>-54.68</v>
       </c>
       <c r="E21" t="n">
-        <v>-51.4</v>
+        <v>-48.34</v>
       </c>
       <c r="F21" t="n">
-        <v>-55.29</v>
+        <v>-55.46</v>
       </c>
       <c r="G21" t="n">
-        <v>-58.2</v>
+        <v>-58.72</v>
       </c>
       <c r="H21" t="n">
-        <v>-56.72</v>
+        <v>-57.08</v>
       </c>
     </row>
     <row r="22">
@@ -10062,22 +10074,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-47.92</v>
+        <v>-46.24</v>
       </c>
       <c r="D22" t="n">
-        <v>-55.2</v>
+        <v>-54.93</v>
       </c>
       <c r="E22" t="n">
-        <v>-49.49</v>
+        <v>-48.02</v>
       </c>
       <c r="F22" t="n">
-        <v>-55.9</v>
+        <v>-55.77</v>
       </c>
       <c r="G22" t="n">
-        <v>-57.67</v>
+        <v>-57.81</v>
       </c>
       <c r="H22" t="n">
-        <v>-57.77</v>
+        <v>-57.56</v>
       </c>
     </row>
   </sheetData>
@@ -10152,22 +10164,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-46.39</v>
+        <v>-45.49</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.15</v>
+        <v>-47.36</v>
       </c>
       <c r="E2" t="n">
-        <v>-48.35</v>
+        <v>-47.85</v>
       </c>
       <c r="F2" t="n">
-        <v>-50.05</v>
+        <v>-49.98</v>
       </c>
       <c r="G2" t="n">
-        <v>-55.04</v>
+        <v>-54.86</v>
       </c>
       <c r="H2" t="n">
-        <v>-53.92</v>
+        <v>-53.84</v>
       </c>
     </row>
     <row r="3">
@@ -10180,22 +10192,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-46.74</v>
+        <v>-46.98</v>
       </c>
       <c r="D3" t="n">
-        <v>-45.95</v>
+        <v>-48.05</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.73</v>
+        <v>-50.87</v>
       </c>
       <c r="F3" t="n">
-        <v>-48.08</v>
+        <v>-51.63</v>
       </c>
       <c r="G3" t="n">
-        <v>-55.49</v>
+        <v>-56.47</v>
       </c>
       <c r="H3" t="n">
-        <v>-52.3</v>
+        <v>-53.84</v>
       </c>
     </row>
     <row r="4">
@@ -10208,22 +10220,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-46.57</v>
+        <v>-46.25</v>
       </c>
       <c r="D4" t="n">
-        <v>-46.76</v>
+        <v>-47.6</v>
       </c>
       <c r="E4" t="n">
-        <v>-49.32</v>
+        <v>-49.73</v>
       </c>
       <c r="F4" t="n">
-        <v>-49.17</v>
+        <v>-50.15</v>
       </c>
       <c r="G4" t="n">
-        <v>-55.69</v>
+        <v>-55</v>
       </c>
       <c r="H4" t="n">
-        <v>-52.31</v>
+        <v>-52.27</v>
       </c>
     </row>
     <row r="5">
@@ -10236,22 +10248,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-46.01</v>
+        <v>-45.35</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.42</v>
+        <v>-46.29</v>
       </c>
       <c r="E5" t="n">
-        <v>-48.02</v>
+        <v>-47.83</v>
       </c>
       <c r="F5" t="n">
-        <v>-47.26</v>
+        <v>-47.96</v>
       </c>
       <c r="G5" t="n">
-        <v>-55.47</v>
+        <v>-55.45</v>
       </c>
       <c r="H5" t="n">
-        <v>-53.16</v>
+        <v>-53.55</v>
       </c>
     </row>
     <row r="6">
@@ -10264,22 +10276,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-44.5</v>
+        <v>-45.62</v>
       </c>
       <c r="D6" t="n">
-        <v>-45.13</v>
+        <v>-47.41</v>
       </c>
       <c r="E6" t="n">
-        <v>-46.52</v>
+        <v>-48.08</v>
       </c>
       <c r="F6" t="n">
-        <v>-46.92</v>
+        <v>-49.03</v>
       </c>
       <c r="G6" t="n">
-        <v>-54.48</v>
+        <v>-55.11</v>
       </c>
       <c r="H6" t="n">
-        <v>-53.94</v>
+        <v>-55.04</v>
       </c>
     </row>
     <row r="7">
@@ -10292,22 +10304,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-43.08</v>
+        <v>-43.69</v>
       </c>
       <c r="D7" t="n">
-        <v>-42.86</v>
+        <v>-43.37</v>
       </c>
       <c r="E7" t="n">
-        <v>-44.53</v>
+        <v>-45.22</v>
       </c>
       <c r="F7" t="n">
-        <v>-43.97</v>
+        <v>-44.85</v>
       </c>
       <c r="G7" t="n">
-        <v>-54.8</v>
+        <v>-54.88</v>
       </c>
       <c r="H7" t="n">
-        <v>-53.25</v>
+        <v>-53.89</v>
       </c>
     </row>
     <row r="8">
@@ -10320,22 +10332,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-46.1</v>
+        <v>-46.27</v>
       </c>
       <c r="D8" t="n">
-        <v>-46.34</v>
+        <v>-45.91</v>
       </c>
       <c r="E8" t="n">
-        <v>-48.41</v>
+        <v>-48.44</v>
       </c>
       <c r="F8" t="n">
-        <v>-48.5</v>
+        <v>-48.23</v>
       </c>
       <c r="G8" t="n">
-        <v>-56.56</v>
+        <v>-56.8</v>
       </c>
       <c r="H8" t="n">
-        <v>-52.7</v>
+        <v>-53.02</v>
       </c>
     </row>
     <row r="9">
@@ -10348,22 +10360,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-44.95</v>
+        <v>-45.8</v>
       </c>
       <c r="D9" t="n">
-        <v>-46.49</v>
+        <v>-45.8</v>
       </c>
       <c r="E9" t="n">
-        <v>-47.19</v>
+        <v>-48.24</v>
       </c>
       <c r="F9" t="n">
-        <v>-48.56</v>
+        <v>-48.93</v>
       </c>
       <c r="G9" t="n">
-        <v>-54.6</v>
+        <v>-55.12</v>
       </c>
       <c r="H9" t="n">
-        <v>-53.97</v>
+        <v>-54.23</v>
       </c>
     </row>
     <row r="10">
@@ -10376,22 +10388,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-46.13</v>
+        <v>-45.73</v>
       </c>
       <c r="D10" t="n">
-        <v>-44.79</v>
+        <v>-45.74</v>
       </c>
       <c r="E10" t="n">
-        <v>-47.78</v>
+        <v>-48.17</v>
       </c>
       <c r="F10" t="n">
-        <v>-46.62</v>
+        <v>-48.46</v>
       </c>
       <c r="G10" t="n">
-        <v>-53.33</v>
+        <v>-54.06</v>
       </c>
       <c r="H10" t="n">
-        <v>-54.86</v>
+        <v>-55.95</v>
       </c>
     </row>
     <row r="11">
@@ -10404,22 +10416,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-44.66</v>
+        <v>-44.36</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.63</v>
+        <v>-42.78</v>
       </c>
       <c r="E11" t="n">
-        <v>-46.75</v>
+        <v>-46.36</v>
       </c>
       <c r="F11" t="n">
-        <v>-45.01</v>
+        <v>-44.13</v>
       </c>
       <c r="G11" t="n">
-        <v>-55.36</v>
+        <v>-55.71</v>
       </c>
       <c r="H11" t="n">
-        <v>-52.68</v>
+        <v>-52.85</v>
       </c>
     </row>
     <row r="12">
@@ -10432,22 +10444,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-46.67</v>
+        <v>-45.14</v>
       </c>
       <c r="D12" t="n">
-        <v>-44.69</v>
+        <v>-44.51</v>
       </c>
       <c r="E12" t="n">
-        <v>-48.84</v>
+        <v>-47.72</v>
       </c>
       <c r="F12" t="n">
-        <v>-46.75</v>
+        <v>-46.41</v>
       </c>
       <c r="G12" t="n">
-        <v>-53.63</v>
+        <v>-53.43</v>
       </c>
       <c r="H12" t="n">
-        <v>-54.85</v>
+        <v>-54.79</v>
       </c>
     </row>
     <row r="13">
@@ -10460,22 +10472,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-42.12</v>
+        <v>-41.66</v>
       </c>
       <c r="D13" t="n">
-        <v>-40.73</v>
+        <v>-39.93</v>
       </c>
       <c r="E13" t="n">
-        <v>-43.81</v>
+        <v>-43.28</v>
       </c>
       <c r="F13" t="n">
-        <v>-41.83</v>
+        <v>-41.09</v>
       </c>
       <c r="G13" t="n">
-        <v>-54.92</v>
+        <v>-55.19</v>
       </c>
       <c r="H13" t="n">
-        <v>-53.11</v>
+        <v>-53.7</v>
       </c>
     </row>
     <row r="14">
@@ -10488,22 +10500,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-43.15</v>
+        <v>-43.04</v>
       </c>
       <c r="D14" t="n">
-        <v>-39.85</v>
+        <v>-40.11</v>
       </c>
       <c r="E14" t="n">
-        <v>-44.53</v>
+        <v>-44.55</v>
       </c>
       <c r="F14" t="n">
-        <v>-41.05</v>
+        <v>-41.08</v>
       </c>
       <c r="G14" t="n">
-        <v>-55.05</v>
+        <v>-55.66</v>
       </c>
       <c r="H14" t="n">
-        <v>-50.04</v>
+        <v>-51.21</v>
       </c>
     </row>
     <row r="15">
@@ -10516,22 +10528,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-41.71</v>
+        <v>-41.79</v>
       </c>
       <c r="D15" t="n">
-        <v>-40.26</v>
+        <v>-40.19</v>
       </c>
       <c r="E15" t="n">
-        <v>-43.39</v>
+        <v>-43.14</v>
       </c>
       <c r="F15" t="n">
-        <v>-41.61</v>
+        <v>-41.33</v>
       </c>
       <c r="G15" t="n">
-        <v>-54.9</v>
+        <v>-55.18</v>
       </c>
       <c r="H15" t="n">
-        <v>-50.9</v>
+        <v>-51.54</v>
       </c>
     </row>
     <row r="16">
@@ -10544,22 +10556,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-41.91</v>
+        <v>-42.34</v>
       </c>
       <c r="D16" t="n">
-        <v>-41.07</v>
+        <v>-41.13</v>
       </c>
       <c r="E16" t="n">
-        <v>-43.2</v>
+        <v>-43.58</v>
       </c>
       <c r="F16" t="n">
-        <v>-42.43</v>
+        <v>-42.39</v>
       </c>
       <c r="G16" t="n">
-        <v>-54.86</v>
+        <v>-55.69</v>
       </c>
       <c r="H16" t="n">
-        <v>-51.98</v>
+        <v>-52.7</v>
       </c>
     </row>
     <row r="17">
@@ -10572,22 +10584,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-47.29</v>
+        <v>-46.32</v>
       </c>
       <c r="D17" t="n">
-        <v>-46.3</v>
+        <v>-46.19</v>
       </c>
       <c r="E17" t="n">
-        <v>-49.06</v>
+        <v>-48.15</v>
       </c>
       <c r="F17" t="n">
-        <v>-48.69</v>
+        <v>-48.2</v>
       </c>
       <c r="G17" t="n">
-        <v>-56</v>
+        <v>-55.58</v>
       </c>
       <c r="H17" t="n">
-        <v>-53.06</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="18">
@@ -10600,22 +10612,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-46.11</v>
+        <v>-46</v>
       </c>
       <c r="D18" t="n">
-        <v>-46.08</v>
+        <v>-46.36</v>
       </c>
       <c r="E18" t="n">
-        <v>-47.78</v>
+        <v>-48.31</v>
       </c>
       <c r="F18" t="n">
-        <v>-47.65</v>
+        <v>-48.81</v>
       </c>
       <c r="G18" t="n">
-        <v>-54.17</v>
+        <v>-54.32</v>
       </c>
       <c r="H18" t="n">
-        <v>-54.5</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="19">
@@ -10628,22 +10640,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-41.7</v>
+        <v>-43.83</v>
       </c>
       <c r="D19" t="n">
-        <v>-46.4</v>
+        <v>-47.29</v>
       </c>
       <c r="E19" t="n">
-        <v>-43.37</v>
+        <v>-44.83</v>
       </c>
       <c r="F19" t="n">
-        <v>-48.27</v>
+        <v>-49.85</v>
       </c>
       <c r="G19" t="n">
-        <v>-50.88</v>
+        <v>-51.75</v>
       </c>
       <c r="H19" t="n">
-        <v>-55.67</v>
+        <v>-57.11</v>
       </c>
     </row>
     <row r="20">
@@ -10656,22 +10668,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-44.89</v>
+        <v>-45.52</v>
       </c>
       <c r="D20" t="n">
-        <v>-43.67</v>
+        <v>-43.06</v>
       </c>
       <c r="E20" t="n">
-        <v>-46.72</v>
+        <v>-47.07</v>
       </c>
       <c r="F20" t="n">
-        <v>-45.24</v>
+        <v>-44.46</v>
       </c>
       <c r="G20" t="n">
-        <v>-55.02</v>
+        <v>-55.95</v>
       </c>
       <c r="H20" t="n">
-        <v>-51.91</v>
+        <v>-52.9</v>
       </c>
     </row>
     <row r="21">
@@ -10684,22 +10696,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-45.76</v>
+        <v>-44.56</v>
       </c>
       <c r="D21" t="n">
-        <v>-45.44</v>
+        <v>-43.31</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.26</v>
+        <v>-46.16</v>
       </c>
       <c r="F21" t="n">
-        <v>-47.35</v>
+        <v>-44.97</v>
       </c>
       <c r="G21" t="n">
-        <v>-55.01</v>
+        <v>-55.17</v>
       </c>
       <c r="H21" t="n">
-        <v>-53.82</v>
+        <v>-54.32</v>
       </c>
     </row>
     <row r="22">
@@ -10712,22 +10724,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-44.47</v>
+        <v>-43.69</v>
       </c>
       <c r="D22" t="n">
-        <v>-45.19</v>
+        <v>-44.98</v>
       </c>
       <c r="E22" t="n">
-        <v>-46.1</v>
+        <v>-45.14</v>
       </c>
       <c r="F22" t="n">
-        <v>-47.08</v>
+        <v>-47.2</v>
       </c>
       <c r="G22" t="n">
-        <v>-52.87</v>
+        <v>-53.65</v>
       </c>
       <c r="H22" t="n">
-        <v>-53.58</v>
+        <v>-54.63</v>
       </c>
     </row>
   </sheetData>

--- a/results_5MHZ_LTE.xlsx
+++ b/results_5MHZ_LTE.xlsx
@@ -189,12 +189,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$23</f>
+              <f>'PWR_Q_1'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$B$2:$B$23</f>
+              <f>'PWR_Q_1'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -221,12 +221,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$23</f>
+              <f>'PWR_Q_1'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$C$2:$C$23</f>
+              <f>'PWR_Q_1'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -254,12 +254,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_1'!$A$2:$A$23</f>
+              <f>'PWR_Q_1'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_1'!$D$2:$D$23</f>
+              <f>'PWR_Q_1'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -374,12 +374,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$C$2:$C$67</f>
+              <f>'ACLR_Q_F'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -407,12 +407,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$D$2:$D$67</f>
+              <f>'ACLR_Q_F'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -439,12 +439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$E$2:$E$67</f>
+              <f>'ACLR_Q_F'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -471,12 +471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$F$2:$F$67</f>
+              <f>'ACLR_Q_F'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -503,12 +503,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$G$2:$G$67</f>
+              <f>'ACLR_Q_F'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -535,12 +535,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_F'!$A$2:$B$67</f>
+              <f>'ACLR_Q_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_F'!$H$2:$H$67</f>
+              <f>'ACLR_Q_F'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -657,12 +657,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$C$2:$C$67</f>
+              <f>'ACLR_16_P'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -690,12 +690,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$D$2:$D$67</f>
+              <f>'ACLR_16_P'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -722,12 +722,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$E$2:$E$67</f>
+              <f>'ACLR_16_P'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -754,12 +754,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$F$2:$F$67</f>
+              <f>'ACLR_16_P'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -786,12 +786,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$G$2:$G$67</f>
+              <f>'ACLR_16_P'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -818,12 +818,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_P'!$A$2:$B$67</f>
+              <f>'ACLR_16_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_P'!$H$2:$H$67</f>
+              <f>'ACLR_16_P'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -940,12 +940,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$C$2:$C$67</f>
+              <f>'ACLR_16_F'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -973,12 +973,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$D$2:$D$67</f>
+              <f>'ACLR_16_F'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -1005,12 +1005,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$E$2:$E$67</f>
+              <f>'ACLR_16_F'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -1037,12 +1037,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$F$2:$F$67</f>
+              <f>'ACLR_16_F'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -1069,12 +1069,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$G$2:$G$67</f>
+              <f>'ACLR_16_F'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -1101,12 +1101,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_16_F'!$A$2:$B$67</f>
+              <f>'ACLR_16_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_16_F'!$H$2:$H$67</f>
+              <f>'ACLR_16_F'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -1223,12 +1223,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$C$2:$C$67</f>
+              <f>'ACLR_64_P'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -1256,12 +1256,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$D$2:$D$67</f>
+              <f>'ACLR_64_P'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -1288,12 +1288,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$E$2:$E$67</f>
+              <f>'ACLR_64_P'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -1320,12 +1320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$F$2:$F$67</f>
+              <f>'ACLR_64_P'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -1352,12 +1352,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$G$2:$G$67</f>
+              <f>'ACLR_64_P'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -1384,12 +1384,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_P'!$A$2:$B$67</f>
+              <f>'ACLR_64_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_P'!$H$2:$H$67</f>
+              <f>'ACLR_64_P'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -1506,12 +1506,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$C$2:$C$67</f>
+              <f>'ACLR_64_F'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -1539,12 +1539,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$D$2:$D$67</f>
+              <f>'ACLR_64_F'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -1571,12 +1571,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$E$2:$E$67</f>
+              <f>'ACLR_64_F'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -1603,12 +1603,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$F$2:$F$67</f>
+              <f>'ACLR_64_F'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -1635,12 +1635,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$G$2:$G$67</f>
+              <f>'ACLR_64_F'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -1667,12 +1667,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_64_F'!$A$2:$B$67</f>
+              <f>'ACLR_64_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_64_F'!$H$2:$H$67</f>
+              <f>'ACLR_64_F'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -1789,12 +1789,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$C$2:$C$67</f>
+              <f>'ACLR_256_F'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -1822,12 +1822,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$D$2:$D$67</f>
+              <f>'ACLR_256_F'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -1854,12 +1854,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$E$2:$E$67</f>
+              <f>'ACLR_256_F'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -1886,12 +1886,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$F$2:$F$67</f>
+              <f>'ACLR_256_F'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -1918,12 +1918,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$G$2:$G$67</f>
+              <f>'ACLR_256_F'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -1950,12 +1950,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_256_F'!$A$2:$B$67</f>
+              <f>'ACLR_256_F'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_256_F'!$H$2:$H$67</f>
+              <f>'ACLR_256_F'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -2071,12 +2071,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$23</f>
+              <f>'EVM_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$B$2:$B$23</f>
+              <f>'EVM_Q_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -2103,12 +2103,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$23</f>
+              <f>'EVM_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$C$2:$C$23</f>
+              <f>'EVM_Q_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -2136,12 +2136,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_P'!$A$2:$A$23</f>
+              <f>'EVM_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_P'!$D$2:$D$23</f>
+              <f>'EVM_Q_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -2255,12 +2255,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$23</f>
+              <f>'EVM_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$B$2:$B$23</f>
+              <f>'EVM_Q_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -2287,12 +2287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$23</f>
+              <f>'EVM_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$C$2:$C$23</f>
+              <f>'EVM_Q_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -2320,12 +2320,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_Q_F'!$A$2:$A$23</f>
+              <f>'EVM_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_Q_F'!$D$2:$D$23</f>
+              <f>'EVM_Q_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -2439,12 +2439,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$23</f>
+              <f>'EVM_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$B$2:$B$23</f>
+              <f>'EVM_16_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -2471,12 +2471,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$23</f>
+              <f>'EVM_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$C$2:$C$23</f>
+              <f>'EVM_16_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -2504,12 +2504,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_P'!$A$2:$A$23</f>
+              <f>'EVM_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_P'!$D$2:$D$23</f>
+              <f>'EVM_16_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -2623,12 +2623,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$23</f>
+              <f>'EVM_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$B$2:$B$23</f>
+              <f>'EVM_16_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -2655,12 +2655,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$23</f>
+              <f>'EVM_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$C$2:$C$23</f>
+              <f>'EVM_16_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -2688,12 +2688,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_16_F'!$A$2:$A$23</f>
+              <f>'EVM_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_16_F'!$D$2:$D$23</f>
+              <f>'EVM_16_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -2807,12 +2807,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$23</f>
+              <f>'PWR_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$B$2:$B$23</f>
+              <f>'PWR_Q_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -2839,12 +2839,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$23</f>
+              <f>'PWR_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$C$2:$C$23</f>
+              <f>'PWR_Q_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -2872,12 +2872,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_P'!$A$2:$A$23</f>
+              <f>'PWR_Q_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_P'!$D$2:$D$23</f>
+              <f>'PWR_Q_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -2991,12 +2991,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$23</f>
+              <f>'EVM_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$B$2:$B$23</f>
+              <f>'EVM_64_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3023,12 +3023,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$23</f>
+              <f>'EVM_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$C$2:$C$23</f>
+              <f>'EVM_64_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3056,12 +3056,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_P'!$A$2:$A$23</f>
+              <f>'EVM_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_P'!$D$2:$D$23</f>
+              <f>'EVM_64_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -3175,12 +3175,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$23</f>
+              <f>'EVM_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$B$2:$B$23</f>
+              <f>'EVM_64_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3207,12 +3207,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$23</f>
+              <f>'EVM_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$C$2:$C$23</f>
+              <f>'EVM_64_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3240,12 +3240,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_64_F'!$A$2:$A$23</f>
+              <f>'EVM_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_64_F'!$D$2:$D$23</f>
+              <f>'EVM_64_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -3359,12 +3359,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$23</f>
+              <f>'EVM_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$B$2:$B$23</f>
+              <f>'EVM_256_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3391,12 +3391,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$23</f>
+              <f>'EVM_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$C$2:$C$23</f>
+              <f>'EVM_256_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3424,12 +3424,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EVM_256_F'!$A$2:$A$23</f>
+              <f>'EVM_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EVM_256_F'!$D$2:$D$23</f>
+              <f>'EVM_256_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -3543,12 +3543,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$23</f>
+              <f>'PWR_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$B$2:$B$23</f>
+              <f>'PWR_Q_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3575,12 +3575,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$23</f>
+              <f>'PWR_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$C$2:$C$23</f>
+              <f>'PWR_Q_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3608,12 +3608,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_Q_F'!$A$2:$A$23</f>
+              <f>'PWR_Q_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_Q_F'!$D$2:$D$23</f>
+              <f>'PWR_Q_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -3727,12 +3727,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$23</f>
+              <f>'PWR_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$B$2:$B$23</f>
+              <f>'PWR_16_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3759,12 +3759,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$23</f>
+              <f>'PWR_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$C$2:$C$23</f>
+              <f>'PWR_16_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3792,12 +3792,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_P'!$A$2:$A$23</f>
+              <f>'PWR_16_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_P'!$D$2:$D$23</f>
+              <f>'PWR_16_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -3911,12 +3911,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$23</f>
+              <f>'PWR_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$B$2:$B$23</f>
+              <f>'PWR_16_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -3943,12 +3943,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$23</f>
+              <f>'PWR_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$C$2:$C$23</f>
+              <f>'PWR_16_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -3976,12 +3976,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_16_F'!$A$2:$A$23</f>
+              <f>'PWR_16_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_16_F'!$D$2:$D$23</f>
+              <f>'PWR_16_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -4095,12 +4095,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$23</f>
+              <f>'PWR_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$B$2:$B$23</f>
+              <f>'PWR_64_P'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -4127,12 +4127,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$23</f>
+              <f>'PWR_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$C$2:$C$23</f>
+              <f>'PWR_64_P'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -4160,12 +4160,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_P'!$A$2:$A$23</f>
+              <f>'PWR_64_P'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_P'!$D$2:$D$23</f>
+              <f>'PWR_64_P'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -4279,12 +4279,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$23</f>
+              <f>'PWR_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$B$2:$B$23</f>
+              <f>'PWR_64_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -4311,12 +4311,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$23</f>
+              <f>'PWR_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$C$2:$C$23</f>
+              <f>'PWR_64_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -4344,12 +4344,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_64_F'!$A$2:$A$23</f>
+              <f>'PWR_64_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_64_F'!$D$2:$D$23</f>
+              <f>'PWR_64_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -4463,12 +4463,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$23</f>
+              <f>'PWR_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$B$2:$B$23</f>
+              <f>'PWR_256_F'!$B$2:$B$25</f>
             </numRef>
           </val>
         </ser>
@@ -4495,12 +4495,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$23</f>
+              <f>'PWR_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$C$2:$C$23</f>
+              <f>'PWR_256_F'!$C$2:$C$25</f>
             </numRef>
           </val>
         </ser>
@@ -4528,12 +4528,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'PWR_256_F'!$A$2:$A$23</f>
+              <f>'PWR_256_F'!$A$2:$A$25</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'PWR_256_F'!$D$2:$D$23</f>
+              <f>'PWR_256_F'!$D$2:$D$25</f>
             </numRef>
           </val>
         </ser>
@@ -4648,12 +4648,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$C$2:$C$67</f>
+              <f>'ACLR_Q_P'!$C$2:$C$73</f>
             </numRef>
           </val>
         </ser>
@@ -4681,12 +4681,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$D$2:$D$67</f>
+              <f>'ACLR_Q_P'!$D$2:$D$73</f>
             </numRef>
           </val>
         </ser>
@@ -4713,12 +4713,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$E$2:$E$67</f>
+              <f>'ACLR_Q_P'!$E$2:$E$73</f>
             </numRef>
           </val>
         </ser>
@@ -4745,12 +4745,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$F$2:$F$67</f>
+              <f>'ACLR_Q_P'!$F$2:$F$73</f>
             </numRef>
           </val>
         </ser>
@@ -4777,12 +4777,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$G$2:$G$67</f>
+              <f>'ACLR_Q_P'!$G$2:$G$73</f>
             </numRef>
           </val>
         </ser>
@@ -4809,12 +4809,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'ACLR_Q_P'!$A$2:$B$67</f>
+              <f>'ACLR_Q_P'!$A$2:$B$73</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'ACLR_Q_P'!$H$2:$H$67</f>
+              <f>'ACLR_Q_P'!$H$2:$H$73</f>
             </numRef>
           </val>
         </ser>
@@ -5769,7 +5769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6105,6 +6105,34 @@
       </c>
       <c r="D23" t="n">
         <v>24.98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.92</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24.17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24.31</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +6147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8015,6 +8043,174 @@
       </c>
       <c r="H67" t="n">
         <v>-63.84</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-45.72</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-45.24</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-46.32</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-46.06</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-53.15</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-52.45</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-39.94</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-40.18</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-41.68</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-42.15</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-46.01</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-46.17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-39.36</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-38.39</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-40.9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-40.07</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-45.49</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-44.54</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-40.68</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-40.16</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-42.23</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-41.74</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-46.97</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-46.39</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-37.87</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-37.25</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-39.86</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-39.39</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-43.37</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-42.83</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-44.11</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-43.06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-44.96</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-44.61</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-50.67</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-49.32</v>
       </c>
     </row>
   </sheetData>
@@ -8029,7 +8225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9925,6 +10121,174 @@
       </c>
       <c r="H67" t="n">
         <v>-72.58</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-44.32</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-53.53</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-45.24</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-57.11</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-51.99</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-59.29</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-41.36</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-53.87</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-41.08</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-57.97</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-53.78</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-59.36</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-41.47</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-53.05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-41.35</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-57.18</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-52.37</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-58.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-43.06</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-55.02</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-42.85</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-59.05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-54.3</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-61.12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-39.72</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-53.28</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-39.31</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-57.62</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-52.57</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-59.3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-45.72</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-53.45</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-45.93</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-58.04</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-55.06</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-59.31</v>
       </c>
     </row>
   </sheetData>
@@ -9939,7 +10303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11835,6 +12199,174 @@
       </c>
       <c r="H67" t="n">
         <v>-63.11</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-42.89</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-44.2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-43.87</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-45.8</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-49.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-50.16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-38.25</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-38.47</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-40.44</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-40.92</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-44.23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-44.01</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-42.75</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-41.83</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-44.15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-43.18</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-48.85</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-48.02</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-40.37</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-41.19</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-42.1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-43.63</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-46.34</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-47.01</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-36.78</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-36.66</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-38.94</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-38.96</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-42.41</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-42.28</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-43.56</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-43.47</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-45.28</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-45.15</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-50.08</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
@@ -11849,7 +12381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13745,6 +14277,174 @@
       </c>
       <c r="H67" t="n">
         <v>-71.48999999999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-44.95</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-55.45</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-44.55</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-60.43</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-56.52</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-59.78</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-40.27</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-55.7</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-39.79</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-59.47</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-53.92</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-60.91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-45.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-56.13</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-45.25</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-60.34</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-54.49</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-61.76</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-40.89</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-54.93</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-40.45</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-58.94</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-53.83</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-60.41</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-39.65</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-54.65</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-39.28</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-58.02</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-52.26</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-61.27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-45.96</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-55.23</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-46.31</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-59.18</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-53.75</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-60.91</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +14459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15655,6 +16355,174 @@
       </c>
       <c r="H67" t="n">
         <v>-62.18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-44.08</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-44.41</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-45.09</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-45.89</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-50.45</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-50.64</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-37.04</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-37.22</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-39.27</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-39.2</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-42.73</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-43.32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-38.2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-37.99</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-40.15</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-40.04</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-43.91</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-43.79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-38.02</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-37.86</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-40.02</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-39.74</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-43.78</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-43.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-34.92</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-37.05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-36.82</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-40.47</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-40.24</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-43.38</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-42.77</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-44.95</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-44.95</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-49.59</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-48.39</v>
       </c>
     </row>
   </sheetData>
@@ -15669,7 +16537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17565,6 +18433,174 @@
       </c>
       <c r="H67" t="n">
         <v>-67.98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-5.51</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-5.46</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-5.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-46.11</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-45.76</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-45.84</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-45.81</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-54.07</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-53.32</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-46.52</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-44.34</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-45.69</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-44.6</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-55.25</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-51.96</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-47.1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-46.66</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-44.38</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-55.1</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-52.2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-45.66</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-43.43</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-45.15</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-43.88</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-53.79</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-50.9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-45.44</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-43.27</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-45.47</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-43.98</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-53.03</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-50.29</v>
       </c>
     </row>
   </sheetData>
@@ -17579,7 +18615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17915,6 +18951,34 @@
       </c>
       <c r="D23" t="n">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
@@ -17929,7 +18993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18265,6 +19329,34 @@
       </c>
       <c r="D23" t="n">
         <v>1.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
@@ -18279,7 +19371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18615,6 +19707,34 @@
       </c>
       <c r="D23" t="n">
         <v>2.93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>
@@ -18629,7 +19749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18965,6 +20085,34 @@
       </c>
       <c r="D23" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>
@@ -18979,7 +20127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19315,6 +20463,34 @@
       </c>
       <c r="D23" t="n">
         <v>24.92</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>24.02</v>
+      </c>
+      <c r="C24" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24.45</v>
       </c>
     </row>
   </sheetData>
@@ -19329,7 +20505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19665,6 +20841,34 @@
       </c>
       <c r="D23" t="n">
         <v>2.21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -19679,7 +20883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20015,6 +21219,34 @@
       </c>
       <c r="D23" t="n">
         <v>1.58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>
@@ -20029,7 +21261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20365,6 +21597,34 @@
       </c>
       <c r="D23" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
@@ -20379,7 +21639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20715,6 +21975,34 @@
       </c>
       <c r="D23" t="n">
         <v>23.81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.59</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.55</v>
       </c>
     </row>
   </sheetData>
@@ -20729,7 +22017,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21065,6 +22353,34 @@
       </c>
       <c r="D23" t="n">
         <v>23.95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23.52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.53</v>
       </c>
     </row>
   </sheetData>
@@ -21079,7 +22395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21415,6 +22731,34 @@
       </c>
       <c r="D23" t="n">
         <v>22.84</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22.33</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.51</v>
       </c>
     </row>
   </sheetData>
@@ -21429,7 +22773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21765,6 +23109,34 @@
       </c>
       <c r="D23" t="n">
         <v>22.87</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>22.52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D25" t="n">
+        <v>22.45</v>
       </c>
     </row>
   </sheetData>
@@ -21779,7 +23151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22115,6 +23487,34 @@
       </c>
       <c r="D23" t="n">
         <v>21.98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="D25" t="n">
+        <v>21.55</v>
       </c>
     </row>
   </sheetData>
@@ -22129,7 +23529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22465,6 +23865,34 @@
       </c>
       <c r="D23" t="n">
         <v>19.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-42.4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>19.31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48</v>
+      </c>
+      <c r="B25" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="D25" t="n">
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
@@ -22479,7 +23907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24377,6 +25805,174 @@
         <v>-73.56</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>-46.48</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-53.93</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-46.54</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-54.65</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-59.21</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>-44.74</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-54.11</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-44.43</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-58.84</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-56.17</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-59.03</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>-45.31</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-53.38</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-45.44</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-57.86</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-54.68</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-59.25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ch01</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>-46.65</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-54.96</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-46.99</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-59</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-55.65</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-60.56</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ch02</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>-43.44</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-55.68</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-60.13</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-55.12</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-61.11</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ch03</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>-49.16</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-53.89</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-50.06</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-58.6</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-56.05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-59.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
